--- a/code/data/candidate_counts.xlsx
+++ b/code/data/candidate_counts.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ae3a9d5e04a1f7/work/programming/devt/r/work/sta/it-402-dc/sta_it_402/data/grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34043E99-6A0B-3841-992A-93EE20661E5F}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{080F7D45-5A79-6346-8E7F-7EE1D569ADA8}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2160" windowWidth="25240" windowHeight="13940" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
+    <workbookView xWindow="7740" yWindow="2160" windowWidth="25240" windowHeight="13940" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
   </bookViews>
   <sheets>
     <sheet name="total_candidates" sheetId="1" r:id="rId1"/>
     <sheet name="total_subject_entries" sheetId="2" r:id="rId2"/>
     <sheet name="total_passes" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>all-National1</t>
   </si>
@@ -134,18 +135,6 @@
     <t>female-National3</t>
   </si>
   <si>
-    <t>male-all-National2</t>
-  </si>
-  <si>
-    <t>female-all-National2</t>
-  </si>
-  <si>
-    <t>male-all-National1</t>
-  </si>
-  <si>
-    <t>female-all-National1</t>
-  </si>
-  <si>
     <t>all-NewHigher</t>
   </si>
   <si>
@@ -183,13 +172,127 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>from 2014</t>
+  </si>
+  <si>
+    <t>At Higher levels, all passes === sum of grades A to C</t>
+  </si>
+  <si>
+    <t>male-National2</t>
+  </si>
+  <si>
+    <t>female-National2</t>
+  </si>
+  <si>
+    <t>male-National1</t>
+  </si>
+  <si>
+    <t>female-National1</t>
+  </si>
+  <si>
+    <t>NotKnown-HNDS</t>
+  </si>
+  <si>
+    <t>NA-HNDS</t>
+  </si>
+  <si>
+    <t>NotKnown-HNCS</t>
+  </si>
+  <si>
+    <t>NA-HNCS</t>
+  </si>
+  <si>
+    <t>NotKnown-HigherNational</t>
+  </si>
+  <si>
+    <t>NA-HigherNational</t>
+  </si>
+  <si>
+    <t>NotKnown-CSYS</t>
+  </si>
+  <si>
+    <t>NA-CSYS</t>
+  </si>
+  <si>
+    <t>NotKnown-Higher</t>
+  </si>
+  <si>
+    <t>NA-Higher</t>
+  </si>
+  <si>
+    <t>NotKnown-AdvancedHigher</t>
+  </si>
+  <si>
+    <t>NA-AdvancedHigher</t>
+  </si>
+  <si>
+    <t>NotKnown-NewHigher</t>
+  </si>
+  <si>
+    <t>NA-NewHigher</t>
+  </si>
+  <si>
+    <t>NotKnown-OrdinaryGrade</t>
+  </si>
+  <si>
+    <t>NA-OrdinaryGrade</t>
+  </si>
+  <si>
+    <t>NotKnown-StandardGrade</t>
+  </si>
+  <si>
+    <t>NA-StandardGrade</t>
+  </si>
+  <si>
+    <t>NotKnown-HigherNationalUnit</t>
+  </si>
+  <si>
+    <t>NA-HigherNationalUnit</t>
+  </si>
+  <si>
+    <t>NotKnown-HNPDA</t>
+  </si>
+  <si>
+    <t>NA-HNPDA</t>
+  </si>
+  <si>
+    <t>NotKnown-National5</t>
+  </si>
+  <si>
+    <t>NA-National5</t>
+  </si>
+  <si>
+    <t>NotKnown-National4</t>
+  </si>
+  <si>
+    <t>NA-National4</t>
+  </si>
+  <si>
+    <t>NotKnown-National3</t>
+  </si>
+  <si>
+    <t>NA-National3</t>
+  </si>
+  <si>
+    <t>NotKnown-National2</t>
+  </si>
+  <si>
+    <t>NA-National2</t>
+  </si>
+  <si>
+    <t>NotKnown-National1</t>
+  </si>
+  <si>
+    <t>NA-National1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +307,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -229,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -239,6 +348,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6316DF-2C2C-D245-ACB0-D74793DD2100}">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:CC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,9 +683,9 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -582,261 +697,403 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BZ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1986</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1988</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1989</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1991</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1997</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>52004</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24128</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>5329</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2576</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2753</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>55801</v>
+      </c>
+      <c r="M18" s="3">
+        <v>25367</v>
+      </c>
+      <c r="N18" s="3">
+        <v>30434</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>10343</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>4696</v>
       </c>
-      <c r="G19" s="3">
+      <c r="I19" s="3">
         <v>5647</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10937</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4998</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>5939</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>58353</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25955</v>
+      </c>
+      <c r="D22" s="3">
+        <v>32398</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2006</v>
       </c>
@@ -849,65 +1106,117 @@
       <c r="D23" s="3">
         <v>31599</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>11490</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5425</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6065</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>11984</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>5510</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>6474</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>12664</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>5789</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>6875</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>64516</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28577</v>
+      </c>
+      <c r="D28" s="1">
+        <v>35939</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>13074</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6029</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7045</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>65195</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28958</v>
+      </c>
+      <c r="D29" s="1">
+        <v>36237</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>13128</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6069</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7059</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2013</v>
       </c>
@@ -920,38 +1229,162 @@
       <c r="D30" s="1">
         <v>36425</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>13316</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6129</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7187</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30019</v>
+      </c>
+      <c r="D31" s="1">
+        <v>37401</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>13497</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6080</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7417</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>45121</v>
+      </c>
+      <c r="C32" s="1">
+        <v>19949</v>
+      </c>
+      <c r="D32" s="1">
+        <v>25172</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>13943</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6339</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7604</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <v>50015</v>
+      </c>
+      <c r="M32" s="1">
+        <v>22694</v>
+      </c>
+      <c r="N32" s="1">
+        <v>27321</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>68664</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30927</v>
+      </c>
+      <c r="D33" s="1">
+        <v>37737</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
+        <v>14246</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6232</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8014</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30299</v>
+      </c>
+      <c r="D34" s="1">
+        <v>37058</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>14375</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6297</v>
+      </c>
+      <c r="I34" s="1">
+        <v>8078</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>66336</v>
+      </c>
+      <c r="C35" s="1">
+        <v>29456</v>
+      </c>
+      <c r="D35" s="1">
+        <v>36880</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
@@ -963,13 +1396,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C7D5AC-F3D9-5743-990E-C41FCF1FA374}">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:CC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" activeCellId="1" sqref="F27 A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,9 +1410,9 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -991,261 +1424,403 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BZ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1986</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1988</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1989</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1991</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1997</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>117045</v>
+      </c>
+      <c r="C17" s="2">
+        <v>54917</v>
+      </c>
+      <c r="D17" s="2">
+        <v>62128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>6769</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3360</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3409</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>147796</v>
+      </c>
+      <c r="M18" s="3">
+        <v>66830</v>
+      </c>
+      <c r="N18" s="3">
+        <v>80966</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>15749</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>7468</v>
       </c>
-      <c r="G19" s="3">
+      <c r="I19" s="3">
         <v>8281</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>16998</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7988</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>9010</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>164142</v>
+      </c>
+      <c r="C22" s="3">
+        <v>73721</v>
+      </c>
+      <c r="D22" s="3">
+        <v>90421</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2006</v>
       </c>
@@ -1258,65 +1833,115 @@
       <c r="D23" s="3">
         <v>87923</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>18264</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8841</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>9423</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>19648</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>9343</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>10305</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>20585</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>9759</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>10826</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <v>178925</v>
+      </c>
+      <c r="C28" s="4">
+        <v>21431</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4">
+        <v>21431</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10198</v>
+      </c>
+      <c r="I28" s="4">
+        <v>11233</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
+        <v>181699</v>
+      </c>
+      <c r="C29" s="4">
+        <v>80953</v>
+      </c>
+      <c r="D29" s="4">
+        <v>100746</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>21593</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10388</v>
+      </c>
+      <c r="I29" s="1">
+        <v>11205</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2013</v>
       </c>
@@ -1329,38 +1954,152 @@
       <c r="D30" s="4">
         <v>102121</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>22119</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10541</v>
+      </c>
+      <c r="I30" s="1">
+        <v>11578</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4">
+        <v>191859</v>
+      </c>
+      <c r="C31" s="4">
+        <v>85384</v>
+      </c>
+      <c r="D31" s="4">
+        <v>106475</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4">
+        <v>22431</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10539</v>
+      </c>
+      <c r="I31" s="4">
+        <v>11892</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4">
+        <v>92568</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41421</v>
+      </c>
+      <c r="D32" s="4">
+        <v>51147</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="4">
+        <v>23350</v>
+      </c>
+      <c r="H32" s="4">
+        <v>11122</v>
+      </c>
+      <c r="I32" s="4">
+        <v>12228</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="4">
+        <v>107301</v>
+      </c>
+      <c r="M32" s="4">
+        <v>47344</v>
+      </c>
+      <c r="N32" s="4">
+        <v>59957</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>197750</v>
+      </c>
+      <c r="C33" s="4">
+        <v>88421</v>
+      </c>
+      <c r="D33" s="4">
+        <v>109329</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4">
+        <v>23794</v>
+      </c>
+      <c r="H33" s="4">
+        <v>10774</v>
+      </c>
+      <c r="I33" s="4">
+        <v>13020</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
+        <v>194804</v>
+      </c>
+      <c r="C34" s="4">
+        <v>87616</v>
+      </c>
+      <c r="D34" s="4">
+        <v>107188</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4">
+        <v>24107</v>
+      </c>
+      <c r="H34" s="4">
+        <v>10882</v>
+      </c>
+      <c r="I34" s="4">
+        <v>13225</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
@@ -1372,13 +2111,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F295FD20-97E2-214F-8962-636EF856FC90}">
-  <dimension ref="A1:AW37"/>
+  <dimension ref="A1:CC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" activeCellId="1" sqref="F27 A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,9 +2125,9 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1400,261 +2139,403 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BZ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1986</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1988</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1989</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1991</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1997</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>87973</v>
+      </c>
+      <c r="C17" s="3">
+        <v>40034</v>
+      </c>
+      <c r="D17" s="3">
+        <v>47939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>5197</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2463</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2734</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>110981</v>
+      </c>
+      <c r="M18" s="3">
+        <v>48670</v>
+      </c>
+      <c r="N18" s="3">
+        <v>62311</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>11727</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>5312</v>
       </c>
-      <c r="G19" s="3">
+      <c r="I19" s="3">
         <v>6415</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>12694</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5760</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>6934</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>120616</v>
+      </c>
+      <c r="C22" s="3">
+        <v>53387</v>
+      </c>
+      <c r="D22" s="3">
+        <v>67229</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2006</v>
       </c>
@@ -1667,65 +2548,115 @@
       <c r="D23" s="3">
         <v>64888</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>13952</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6524</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>7428</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>15765</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>7212</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>8553</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>16451</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>7605</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>8846</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <v>138274</v>
+      </c>
+      <c r="C28" s="4">
+        <v>17449</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4">
+        <v>17449</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8002</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9447</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
+        <v>143289</v>
+      </c>
+      <c r="C29" s="4">
+        <v>62553</v>
+      </c>
+      <c r="D29" s="4">
+        <v>80736</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>17745</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8231</v>
+      </c>
+      <c r="I29" s="1">
+        <v>9514</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2013</v>
       </c>
@@ -1738,40 +2669,177 @@
       <c r="D30" s="4">
         <v>82648</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>18570</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8533</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10037</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4">
+        <v>148684</v>
+      </c>
+      <c r="C31" s="4">
+        <v>64499</v>
+      </c>
+      <c r="D31" s="4">
+        <v>84185</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4">
+        <v>18281</v>
+      </c>
+      <c r="H31" s="4">
+        <v>8280</v>
+      </c>
+      <c r="I31" s="4">
+        <v>10001</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4">
+        <v>71295</v>
+      </c>
+      <c r="C32" s="4">
+        <v>31171</v>
+      </c>
+      <c r="D32" s="4">
+        <v>40124</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="4">
+        <v>19007</v>
+      </c>
+      <c r="H32" s="4">
+        <v>8707</v>
+      </c>
+      <c r="I32" s="4">
+        <v>10300</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="4">
+        <v>85436</v>
+      </c>
+      <c r="M32" s="4">
+        <v>36200</v>
+      </c>
+      <c r="N32" s="4">
+        <v>49236</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>153391</v>
+      </c>
+      <c r="C33" s="4">
+        <v>65908</v>
+      </c>
+      <c r="D33" s="4">
+        <v>87483</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4">
+        <v>19518</v>
+      </c>
+      <c r="H33" s="4">
+        <v>8455</v>
+      </c>
+      <c r="I33" s="4">
+        <v>11063</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
+        <v>150639</v>
+      </c>
+      <c r="C34" s="4">
+        <v>64970</v>
+      </c>
+      <c r="D34" s="4">
+        <v>85669</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4">
+        <v>19381</v>
+      </c>
+      <c r="H34" s="4">
+        <v>8430</v>
+      </c>
+      <c r="I34" s="4">
+        <v>10951</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B584D46-225E-154A-B515-B7F444869813}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/code/data/candidate_counts.xlsx
+++ b/code/data/candidate_counts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ae3a9d5e04a1f7/work/programming/devt/r/work/sta/it-402-dc/sta_it_402/data/grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ae3a9d5e04a1f7/work/programming/devt/r/work/sta/it-402-dc/sta_it_402/data/demographic_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{080F7D45-5A79-6346-8E7F-7EE1D569ADA8}"/>
+  <xr:revisionPtr revIDLastSave="698" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32209B54-3FEC-7B49-87E6-7ADF58E4B08A}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2160" windowWidth="25240" windowHeight="13940" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
+    <workbookView xWindow="2440" yWindow="2820" windowWidth="25760" windowHeight="15160" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
   </bookViews>
   <sheets>
     <sheet name="total_candidates" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
   <si>
     <t>all-National1</t>
   </si>
@@ -286,13 +286,19 @@
   </si>
   <si>
     <t>NA-National1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Standard Grade - total passes calculated as all bar 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,12 +313,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -340,20 +358,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,21 +685,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6316DF-2C2C-D245-ACB0-D74793DD2100}">
-  <dimension ref="A1:CC37"/>
+  <dimension ref="A1:CE37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="81" width="10.83203125" style="2"/>
+    <col min="82" max="83" width="10.83203125" style="1"/>
+    <col min="84" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -703,34 +721,34 @@
         <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>33</v>
@@ -927,157 +945,239 @@
       <c r="CC1" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+    </row>
+    <row r="2" spans="1:83" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+    </row>
+    <row r="3" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1986</v>
       </c>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+    </row>
+    <row r="4" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1987</v>
       </c>
-    </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+    </row>
+    <row r="5" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1988</v>
       </c>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+    </row>
+    <row r="6" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1989</v>
       </c>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+    </row>
+    <row r="7" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1990</v>
       </c>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+    </row>
+    <row r="8" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1991</v>
       </c>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+    </row>
+    <row r="9" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1992</v>
       </c>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+    </row>
+    <row r="10" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1993</v>
       </c>
-    </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+    </row>
+    <row r="11" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1994</v>
       </c>
-    </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+    </row>
+    <row r="12" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1995</v>
       </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+    </row>
+    <row r="13" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1996</v>
       </c>
-    </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+    </row>
+    <row r="14" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1997</v>
       </c>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+    </row>
+    <row r="15" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="2"/>
+    </row>
+    <row r="16" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1999</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+    </row>
+    <row r="17" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
-      <c r="B17" s="2">
+      <c r="G17" s="2">
         <v>52004</v>
       </c>
-      <c r="C17" s="2">
+      <c r="H17" s="2">
         <v>24128</v>
       </c>
-      <c r="D17" s="2">
+      <c r="I17" s="2">
         <v>27876</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+    </row>
+    <row r="18" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2001</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="G18" s="3">
-        <v>5329</v>
+        <v>55801</v>
       </c>
       <c r="H18" s="3">
-        <v>2576</v>
+        <v>25367</v>
       </c>
       <c r="I18" s="3">
-        <v>2753</v>
+        <v>30434</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <v>55801</v>
+        <v>5329</v>
       </c>
       <c r="M18" s="3">
-        <v>25367</v>
+        <v>2576</v>
       </c>
       <c r="N18" s="3">
-        <v>30434</v>
+        <v>2753</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+    </row>
+    <row r="19" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="B19" s="3">
+        <v>58427</v>
+      </c>
+      <c r="C19" s="3">
+        <v>26513</v>
+      </c>
+      <c r="D19" s="3">
+        <v>31914</v>
+      </c>
+      <c r="L19" s="3">
         <v>10343</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="3">
         <v>4696</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>5647</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+    </row>
+    <row r="20" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="G20" s="3">
+      <c r="B20" s="3">
+        <v>59298</v>
+      </c>
+      <c r="C20" s="3">
+        <v>27056</v>
+      </c>
+      <c r="D20" s="3">
+        <v>32242</v>
+      </c>
+      <c r="L20" s="3">
         <v>10937</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>4998</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>5939</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+    </row>
+    <row r="21" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2004</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>58755</v>
+      </c>
+      <c r="C21" s="3">
+        <v>26582</v>
+      </c>
+      <c r="D21" s="3">
+        <v>32173</v>
+      </c>
+      <c r="L21" s="3">
+        <v>11094</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5084</v>
+      </c>
+      <c r="N21" s="3">
+        <v>6010</v>
+      </c>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+    </row>
+    <row r="22" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2005</v>
       </c>
@@ -1092,8 +1192,19 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>11021</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5058</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5962</v>
+      </c>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+    </row>
+    <row r="23" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2006</v>
       </c>
@@ -1108,286 +1219,409 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>11490</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>5425</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>6065</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+    </row>
+    <row r="24" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>57745</v>
+      </c>
+      <c r="C24" s="3">
+        <v>25522</v>
+      </c>
+      <c r="D24" s="3">
+        <v>32223</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10953</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5077</v>
+      </c>
+      <c r="N24" s="3">
+        <v>5876</v>
+      </c>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+    </row>
+    <row r="25" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>58595</v>
+      </c>
+      <c r="C25" s="3">
+        <v>25990</v>
+      </c>
+      <c r="D25" s="3">
+        <v>32605</v>
+      </c>
+      <c r="L25" s="3">
+        <v>11615</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5272</v>
+      </c>
+      <c r="N25" s="3">
+        <v>6343</v>
+      </c>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+    </row>
+    <row r="26" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009</v>
       </c>
-      <c r="G26" s="1">
+      <c r="B26" s="3">
+        <v>60526</v>
+      </c>
+      <c r="C26" s="3">
+        <v>26616</v>
+      </c>
+      <c r="D26" s="3">
+        <v>33910</v>
+      </c>
+      <c r="L26" s="3">
         <v>11984</v>
       </c>
-      <c r="H26" s="1">
+      <c r="M26" s="3">
         <v>5510</v>
       </c>
-      <c r="I26" s="1">
+      <c r="N26" s="3">
         <v>6474</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+    </row>
+    <row r="27" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="G27" s="1">
+      <c r="B27" s="3">
+        <v>63582</v>
+      </c>
+      <c r="C27" s="3">
+        <v>28095</v>
+      </c>
+      <c r="D27" s="3">
+        <v>35487</v>
+      </c>
+      <c r="L27" s="3">
         <v>12664</v>
       </c>
-      <c r="H27" s="1">
+      <c r="M27" s="3">
         <v>5789</v>
       </c>
-      <c r="I27" s="1">
+      <c r="N27" s="3">
         <v>6875</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+    </row>
+    <row r="28" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>64516</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>28577</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>35939</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="L28" s="3">
         <v>13074</v>
       </c>
-      <c r="H28" s="1">
+      <c r="M28" s="3">
         <v>6029</v>
       </c>
-      <c r="I28" s="1">
+      <c r="N28" s="3">
         <v>7045</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+    </row>
+    <row r="29" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2012</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>65195</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>28958</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>36237</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="L29" s="3">
         <v>13128</v>
       </c>
-      <c r="H29" s="1">
+      <c r="M29" s="3">
         <v>6069</v>
       </c>
-      <c r="I29" s="1">
+      <c r="N29" s="3">
         <v>7059</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+    </row>
+    <row r="30" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2013</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>65697</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>29272</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>36425</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="L30" s="3">
         <v>13316</v>
       </c>
-      <c r="H30" s="1">
+      <c r="M30" s="3">
         <v>6129</v>
       </c>
-      <c r="I30" s="1">
+      <c r="N30" s="3">
         <v>7187</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+    </row>
+    <row r="31" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>67420</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>30019</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>37401</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="L31" s="3">
         <v>13497</v>
       </c>
-      <c r="H31" s="1">
+      <c r="M31" s="3">
         <v>6080</v>
       </c>
-      <c r="I31" s="1">
+      <c r="N31" s="3">
         <v>7417</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+    </row>
+    <row r="32" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>45121</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>19949</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>25172</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>50015</v>
+      </c>
+      <c r="H32" s="3">
+        <v>22694</v>
+      </c>
+      <c r="I32" s="3">
+        <v>27321</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
         <v>13943</v>
       </c>
-      <c r="H32" s="1">
+      <c r="M32" s="3">
         <v>6339</v>
       </c>
-      <c r="I32" s="1">
+      <c r="N32" s="3">
         <v>7604</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1">
-        <v>50015</v>
-      </c>
-      <c r="M32" s="1">
-        <v>22694</v>
-      </c>
-      <c r="N32" s="1">
-        <v>27321</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+    </row>
+    <row r="33" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>68664</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>30927</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>37737</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="L33" s="3">
         <v>14246</v>
       </c>
-      <c r="H33" s="1">
+      <c r="M33" s="3">
         <v>6232</v>
       </c>
-      <c r="I33" s="1">
+      <c r="N33" s="3">
         <v>8014</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+    </row>
+    <row r="34" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>67357</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>30299</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>37058</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="L34" s="3">
         <v>14375</v>
       </c>
-      <c r="H34" s="1">
+      <c r="M34" s="3">
         <v>6297</v>
       </c>
-      <c r="I34" s="1">
+      <c r="N34" s="3">
         <v>8078</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+    </row>
+    <row r="35" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>66336</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>29456</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>36880</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="L35" s="3">
+        <v>14438</v>
+      </c>
+      <c r="M35" s="3">
+        <v>6240</v>
+      </c>
+      <c r="N35" s="3">
+        <v>8198</v>
+      </c>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+    </row>
+    <row r="36" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>63977</v>
+      </c>
+      <c r="C36" s="3">
+        <v>28332</v>
+      </c>
+      <c r="D36" s="3">
+        <v>35638</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3">
+        <v>13923</v>
+      </c>
+      <c r="M36" s="3">
+        <v>5916</v>
+      </c>
+      <c r="N36" s="3">
+        <v>8006</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+    </row>
+    <row r="37" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,21 +1630,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C7D5AC-F3D9-5743-990E-C41FCF1FA374}">
-  <dimension ref="A1:CC37"/>
+  <dimension ref="A1:CE37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="81" width="10.83203125" style="2"/>
+    <col min="82" max="83" width="10.83203125" style="1"/>
+    <col min="84" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1430,34 +1666,34 @@
         <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>33</v>
@@ -1654,157 +1890,383 @@
       <c r="CC1" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+    </row>
+    <row r="2" spans="1:83" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+    </row>
+    <row r="3" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1986</v>
       </c>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>166403</v>
+      </c>
+      <c r="C3" s="2">
+        <v>78372</v>
+      </c>
+      <c r="D3" s="2">
+        <v>88031</v>
+      </c>
+      <c r="V3" s="5">
+        <v>32095</v>
+      </c>
+      <c r="W3" s="5">
+        <v>16609</v>
+      </c>
+      <c r="X3" s="5">
+        <v>15486</v>
+      </c>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+    </row>
+    <row r="4" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1987</v>
       </c>
-    </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>165936</v>
+      </c>
+      <c r="C4" s="2">
+        <v>77016</v>
+      </c>
+      <c r="D4" s="2">
+        <v>88920</v>
+      </c>
+      <c r="V4" s="5">
+        <v>41080</v>
+      </c>
+      <c r="W4" s="5">
+        <v>21476</v>
+      </c>
+      <c r="X4" s="5">
+        <v>19604</v>
+      </c>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+    </row>
+    <row r="5" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1988</v>
       </c>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>169818</v>
+      </c>
+      <c r="C5" s="2">
+        <v>78651</v>
+      </c>
+      <c r="D5" s="2">
+        <v>91167</v>
+      </c>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+    </row>
+    <row r="6" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1989</v>
       </c>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>166845</v>
+      </c>
+      <c r="C6" s="2">
+        <v>77267</v>
+      </c>
+      <c r="D6" s="2">
+        <v>89578</v>
+      </c>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+    </row>
+    <row r="7" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1990</v>
       </c>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>158191</v>
+      </c>
+      <c r="C7" s="2">
+        <v>74154</v>
+      </c>
+      <c r="D7" s="2">
+        <v>84037</v>
+      </c>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+    </row>
+    <row r="8" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1991</v>
       </c>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>155794</v>
+      </c>
+      <c r="C8" s="2">
+        <v>70760</v>
+      </c>
+      <c r="D8" s="2">
+        <v>85034</v>
+      </c>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+    </row>
+    <row r="9" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1992</v>
       </c>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>157995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>72230</v>
+      </c>
+      <c r="D9" s="2">
+        <v>85765</v>
+      </c>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+    </row>
+    <row r="10" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1993</v>
       </c>
-    </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>159548</v>
+      </c>
+      <c r="C10" s="2">
+        <v>73418</v>
+      </c>
+      <c r="D10" s="2">
+        <v>86130</v>
+      </c>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+    </row>
+    <row r="11" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1994</v>
       </c>
-    </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>160646</v>
+      </c>
+      <c r="C11" s="2">
+        <v>73243</v>
+      </c>
+      <c r="D11" s="2">
+        <v>87403</v>
+      </c>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+    </row>
+    <row r="12" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1995</v>
       </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>160925</v>
+      </c>
+      <c r="C12" s="2">
+        <v>73771</v>
+      </c>
+      <c r="D12" s="2">
+        <v>87154</v>
+      </c>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+    </row>
+    <row r="13" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1996</v>
       </c>
-    </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>164701</v>
+      </c>
+      <c r="C13" s="2">
+        <v>75917</v>
+      </c>
+      <c r="D13" s="2">
+        <v>88784</v>
+      </c>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+    </row>
+    <row r="14" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1997</v>
       </c>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>165936</v>
+      </c>
+      <c r="C14" s="2">
+        <v>77016</v>
+      </c>
+      <c r="D14" s="2">
+        <v>88920</v>
+      </c>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+    </row>
+    <row r="15" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>163807</v>
+      </c>
+      <c r="C15" s="2">
+        <v>74290</v>
+      </c>
+      <c r="D15" s="2">
+        <v>89517</v>
+      </c>
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="2"/>
+    </row>
+    <row r="16" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1999</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>160908</v>
+      </c>
+      <c r="C16" s="2">
+        <v>73638</v>
+      </c>
+      <c r="D16" s="2">
+        <v>87270</v>
+      </c>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+    </row>
+    <row r="17" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
-      <c r="B17" s="2">
+      <c r="G17" s="2">
         <v>117045</v>
       </c>
-      <c r="C17" s="2">
+      <c r="H17" s="2">
         <v>54917</v>
       </c>
-      <c r="D17" s="2">
+      <c r="I17" s="2">
         <v>62128</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+    </row>
+    <row r="18" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2001</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="G18" s="3">
-        <v>6769</v>
+        <v>147796</v>
       </c>
       <c r="H18" s="3">
-        <v>3360</v>
+        <v>66830</v>
       </c>
       <c r="I18" s="3">
-        <v>3409</v>
+        <v>80966</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <v>147796</v>
+        <v>6769</v>
       </c>
       <c r="M18" s="3">
-        <v>66830</v>
+        <v>3360</v>
       </c>
       <c r="N18" s="3">
-        <v>80966</v>
+        <v>3409</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+    </row>
+    <row r="19" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="B19" s="3">
+        <v>164004</v>
+      </c>
+      <c r="C19" s="3">
+        <v>74077</v>
+      </c>
+      <c r="D19" s="3">
+        <v>89927</v>
+      </c>
+      <c r="L19" s="3">
         <v>15749</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="3">
         <v>7468</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>8281</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+    </row>
+    <row r="20" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="G20" s="3">
+      <c r="B20" s="3">
+        <v>166885</v>
+      </c>
+      <c r="C20" s="3">
+        <v>76032</v>
+      </c>
+      <c r="D20" s="3">
+        <v>90853</v>
+      </c>
+      <c r="L20" s="3">
         <v>16998</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>7988</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>9010</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+    </row>
+    <row r="21" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2004</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>165575</v>
+      </c>
+      <c r="C21" s="3">
+        <v>75329</v>
+      </c>
+      <c r="D21" s="3">
+        <v>90246</v>
+      </c>
+      <c r="L21" s="3">
+        <v>17185</v>
+      </c>
+      <c r="M21" s="3">
+        <v>8040</v>
+      </c>
+      <c r="N21" s="3">
+        <v>9145</v>
+      </c>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+    </row>
+    <row r="22" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2005</v>
       </c>
@@ -1819,8 +2281,19 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>17146</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8148</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8998</v>
+      </c>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+    </row>
+    <row r="23" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2006</v>
       </c>
@@ -1835,274 +2308,409 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>18264</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>8841</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>9423</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+    </row>
+    <row r="24" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>161081</v>
+      </c>
+      <c r="C24" s="3">
+        <v>71616</v>
+      </c>
+      <c r="D24" s="3">
+        <v>89465</v>
+      </c>
+      <c r="L24" s="3">
+        <v>17831</v>
+      </c>
+      <c r="M24" s="3">
+        <v>8512</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9319</v>
+      </c>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+    </row>
+    <row r="25" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>162576</v>
+      </c>
+      <c r="C25" s="3">
+        <v>73082</v>
+      </c>
+      <c r="D25" s="3">
+        <v>89494</v>
+      </c>
+      <c r="L25" s="3">
+        <v>18854</v>
+      </c>
+      <c r="M25" s="3">
+        <v>8747</v>
+      </c>
+      <c r="N25" s="3">
+        <v>10107</v>
+      </c>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+    </row>
+    <row r="26" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009</v>
       </c>
-      <c r="G26" s="1">
+      <c r="B26" s="3">
+        <v>127490</v>
+      </c>
+      <c r="C26" s="3">
+        <v>55793</v>
+      </c>
+      <c r="D26" s="3">
+        <v>71697</v>
+      </c>
+      <c r="L26" s="3">
         <v>19648</v>
       </c>
-      <c r="H26" s="1">
+      <c r="M26" s="3">
         <v>9343</v>
       </c>
-      <c r="I26" s="1">
+      <c r="N26" s="3">
         <v>10305</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+    </row>
+    <row r="27" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="G27" s="1">
+      <c r="B27" s="3">
+        <v>175614</v>
+      </c>
+      <c r="C27" s="3">
+        <v>78258</v>
+      </c>
+      <c r="D27" s="3">
+        <v>97356</v>
+      </c>
+      <c r="L27" s="3">
         <v>20585</v>
       </c>
-      <c r="H27" s="1">
+      <c r="M27" s="3">
         <v>9759</v>
       </c>
-      <c r="I27" s="1">
+      <c r="N27" s="3">
         <v>10826</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+    </row>
+    <row r="28" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>178925</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
+        <v>79762</v>
+      </c>
+      <c r="D28" s="3">
+        <v>99163</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="L28" s="3">
         <v>21431</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4">
-        <v>21431</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="M28" s="3">
         <v>10198</v>
       </c>
-      <c r="I28" s="4">
+      <c r="N28" s="3">
         <v>11233</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+    </row>
+    <row r="29" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2012</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>181699</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>80953</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>100746</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="L29" s="3">
         <v>21593</v>
       </c>
-      <c r="H29" s="1">
+      <c r="M29" s="3">
         <v>10388</v>
       </c>
-      <c r="I29" s="1">
+      <c r="N29" s="3">
         <v>11205</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+    </row>
+    <row r="30" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2013</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>183489</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>81368</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>102121</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="L30" s="3">
         <v>22119</v>
       </c>
-      <c r="H30" s="1">
+      <c r="M30" s="3">
         <v>10541</v>
       </c>
-      <c r="I30" s="1">
+      <c r="N30" s="3">
         <v>11578</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+    </row>
+    <row r="31" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>191859</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>85384</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>106475</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="L31" s="3">
         <v>22431</v>
       </c>
-      <c r="H31" s="4">
+      <c r="M31" s="3">
         <v>10539</v>
       </c>
-      <c r="I31" s="4">
+      <c r="N31" s="3">
         <v>11892</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+    </row>
+    <row r="32" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>92568</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>41421</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>51147</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>107301</v>
+      </c>
+      <c r="H32" s="3">
+        <v>47344</v>
+      </c>
+      <c r="I32" s="3">
+        <v>59957</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
         <v>23350</v>
       </c>
-      <c r="H32" s="4">
+      <c r="M32" s="3">
         <v>11122</v>
       </c>
-      <c r="I32" s="4">
+      <c r="N32" s="3">
         <v>12228</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="4">
-        <v>107301</v>
-      </c>
-      <c r="M32" s="4">
-        <v>47344</v>
-      </c>
-      <c r="N32" s="4">
-        <v>59957</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+    </row>
+    <row r="33" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>197750</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>88421</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>109329</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="L33" s="3">
         <v>23794</v>
       </c>
-      <c r="H33" s="4">
+      <c r="M33" s="3">
         <v>10774</v>
       </c>
-      <c r="I33" s="4">
+      <c r="N33" s="3">
         <v>13020</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+    </row>
+    <row r="34" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>194804</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>87616</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>107188</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="4">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="L34" s="3">
         <v>24107</v>
       </c>
-      <c r="H34" s="4">
+      <c r="M34" s="3">
         <v>10882</v>
       </c>
-      <c r="I34" s="4">
+      <c r="N34" s="3">
         <v>13225</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+    </row>
+    <row r="35" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>191952</v>
+      </c>
+      <c r="C35" s="3">
+        <v>85307</v>
+      </c>
+      <c r="D35" s="3">
+        <v>106645</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="L35" s="3">
+        <v>24328</v>
+      </c>
+      <c r="M35" s="3">
+        <v>10883</v>
+      </c>
+      <c r="N35" s="3">
+        <v>13445</v>
+      </c>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+    </row>
+    <row r="36" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>185917</v>
+      </c>
+      <c r="C36" s="3">
+        <v>81900</v>
+      </c>
+      <c r="D36" s="3">
+        <v>104005</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3">
+        <v>23465</v>
+      </c>
+      <c r="M36" s="3">
+        <v>10286</v>
+      </c>
+      <c r="N36" s="3">
+        <v>13178</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+    </row>
+    <row r="37" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2111,21 +2719,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F295FD20-97E2-214F-8962-636EF856FC90}">
-  <dimension ref="A1:CC37"/>
+  <dimension ref="A1:CE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="81" width="10.83203125" style="2"/>
+    <col min="82" max="83" width="10.83203125" style="1"/>
+    <col min="84" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2145,34 +2755,34 @@
         <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>33</v>
@@ -2369,157 +2979,383 @@
       <c r="CC1" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:81" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+    </row>
+    <row r="2" spans="1:83" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+    </row>
+    <row r="3" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1986</v>
       </c>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>110390</v>
+      </c>
+      <c r="C3" s="2">
+        <v>51655</v>
+      </c>
+      <c r="D3" s="2">
+        <v>58735</v>
+      </c>
+      <c r="V3" s="6">
+        <v>13017</v>
+      </c>
+      <c r="W3" s="6">
+        <v>6350</v>
+      </c>
+      <c r="X3" s="6">
+        <v>6667</v>
+      </c>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+    </row>
+    <row r="4" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1987</v>
       </c>
-    </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>110463</v>
+      </c>
+      <c r="C4" s="2">
+        <v>51426</v>
+      </c>
+      <c r="D4" s="2">
+        <v>59037</v>
+      </c>
+      <c r="V4" s="6">
+        <v>27779</v>
+      </c>
+      <c r="W4" s="6">
+        <v>13993</v>
+      </c>
+      <c r="X4" s="6">
+        <v>13786</v>
+      </c>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+    </row>
+    <row r="5" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1988</v>
       </c>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>113619</v>
+      </c>
+      <c r="C5" s="2">
+        <v>52105</v>
+      </c>
+      <c r="D5" s="2">
+        <v>61514</v>
+      </c>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+    </row>
+    <row r="6" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1989</v>
       </c>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>113538</v>
+      </c>
+      <c r="C6" s="2">
+        <v>51752</v>
+      </c>
+      <c r="D6" s="2">
+        <v>61786</v>
+      </c>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+    </row>
+    <row r="7" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1990</v>
       </c>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>106445</v>
+      </c>
+      <c r="C7" s="2">
+        <v>49373</v>
+      </c>
+      <c r="D7" s="2">
+        <v>57072</v>
+      </c>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+    </row>
+    <row r="8" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1991</v>
       </c>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>106549</v>
+      </c>
+      <c r="C8" s="2">
+        <v>47528</v>
+      </c>
+      <c r="D8" s="2">
+        <v>59021</v>
+      </c>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+    </row>
+    <row r="9" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1992</v>
       </c>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>108579</v>
+      </c>
+      <c r="C9" s="2">
+        <v>49053</v>
+      </c>
+      <c r="D9" s="2">
+        <v>59526</v>
+      </c>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+    </row>
+    <row r="10" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1993</v>
       </c>
-    </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>109825</v>
+      </c>
+      <c r="C10" s="2">
+        <v>49838</v>
+      </c>
+      <c r="D10" s="2">
+        <v>59987</v>
+      </c>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+    </row>
+    <row r="11" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1994</v>
       </c>
-    </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>110259</v>
+      </c>
+      <c r="C11" s="2">
+        <v>48916</v>
+      </c>
+      <c r="D11" s="2">
+        <v>61343</v>
+      </c>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+    </row>
+    <row r="12" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1995</v>
       </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>111826</v>
+      </c>
+      <c r="C12" s="2">
+        <v>49397</v>
+      </c>
+      <c r="D12" s="2">
+        <v>62429</v>
+      </c>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+    </row>
+    <row r="13" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1996</v>
       </c>
-    </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>114029</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50988</v>
+      </c>
+      <c r="D13" s="2">
+        <v>63041</v>
+      </c>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+    </row>
+    <row r="14" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1997</v>
       </c>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>116784</v>
+      </c>
+      <c r="C14" s="2">
+        <v>51420</v>
+      </c>
+      <c r="D14" s="2">
+        <v>65364</v>
+      </c>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+    </row>
+    <row r="15" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>115096</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50242</v>
+      </c>
+      <c r="D15" s="2">
+        <v>64854</v>
+      </c>
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="2"/>
+    </row>
+    <row r="16" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1999</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>114149</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50105</v>
+      </c>
+      <c r="D16" s="2">
+        <v>64044</v>
+      </c>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+    </row>
+    <row r="17" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
-      <c r="B17" s="3">
+      <c r="G17" s="2">
         <v>87973</v>
       </c>
-      <c r="C17" s="3">
+      <c r="H17" s="2">
         <v>40034</v>
       </c>
-      <c r="D17" s="3">
+      <c r="I17" s="2">
         <v>47939</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+    </row>
+    <row r="18" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2001</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="G18" s="3">
-        <v>5197</v>
+        <v>110981</v>
       </c>
       <c r="H18" s="3">
-        <v>2463</v>
+        <v>48670</v>
       </c>
       <c r="I18" s="3">
-        <v>2734</v>
+        <v>62311</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <v>110981</v>
+        <v>5197</v>
       </c>
       <c r="M18" s="3">
-        <v>48670</v>
+        <v>2463</v>
       </c>
       <c r="N18" s="3">
-        <v>62311</v>
+        <v>2734</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+    </row>
+    <row r="19" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="B19" s="3">
+        <v>119248</v>
+      </c>
+      <c r="C19" s="3">
+        <v>52165</v>
+      </c>
+      <c r="D19" s="3">
+        <v>67083</v>
+      </c>
+      <c r="L19" s="3">
         <v>11727</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="3">
         <v>5312</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>6415</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+    </row>
+    <row r="20" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="G20" s="3">
+      <c r="B20" s="3">
+        <v>120277</v>
+      </c>
+      <c r="C20" s="3">
+        <v>52999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>67278</v>
+      </c>
+      <c r="L20" s="3">
         <v>12694</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>5760</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>6934</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+    </row>
+    <row r="21" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2004</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>121125</v>
+      </c>
+      <c r="C21" s="3">
+        <v>53702</v>
+      </c>
+      <c r="D21" s="3">
+        <v>67423</v>
+      </c>
+      <c r="L21" s="3">
+        <v>13039</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5891</v>
+      </c>
+      <c r="N21" s="3">
+        <v>7148</v>
+      </c>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+    </row>
+    <row r="22" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2005</v>
       </c>
@@ -2534,8 +3370,19 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>13179</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6175</v>
+      </c>
+      <c r="N22" s="3">
+        <v>7004</v>
+      </c>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+    </row>
+    <row r="23" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2006</v>
       </c>
@@ -2550,274 +3397,409 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>13952</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>6524</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>7428</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+    </row>
+    <row r="24" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>118150</v>
+      </c>
+      <c r="C24" s="3">
+        <v>51712</v>
+      </c>
+      <c r="D24" s="3">
+        <v>66438</v>
+      </c>
+      <c r="L24" s="3">
+        <v>13697</v>
+      </c>
+      <c r="M24" s="3">
+        <v>6349</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7348</v>
+      </c>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+    </row>
+    <row r="25" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>122050</v>
+      </c>
+      <c r="C25" s="3">
+        <v>53925</v>
+      </c>
+      <c r="D25" s="3">
+        <v>68125</v>
+      </c>
+      <c r="L25" s="3">
+        <v>14688</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6649</v>
+      </c>
+      <c r="N25" s="3">
+        <v>8039</v>
+      </c>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+    </row>
+    <row r="26" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009</v>
       </c>
-      <c r="G26" s="1">
+      <c r="B26" s="3">
+        <v>127490</v>
+      </c>
+      <c r="C26" s="3">
+        <v>55793</v>
+      </c>
+      <c r="D26" s="3">
+        <v>71697</v>
+      </c>
+      <c r="L26" s="3">
         <v>15765</v>
       </c>
-      <c r="H26" s="1">
+      <c r="M26" s="3">
         <v>7212</v>
       </c>
-      <c r="I26" s="1">
+      <c r="N26" s="3">
         <v>8553</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+    </row>
+    <row r="27" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010</v>
       </c>
-      <c r="G27" s="1">
+      <c r="B27" s="3">
+        <v>134029</v>
+      </c>
+      <c r="C27" s="3">
+        <v>59001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>75028</v>
+      </c>
+      <c r="L27" s="3">
         <v>16451</v>
       </c>
-      <c r="H27" s="1">
+      <c r="M27" s="3">
         <v>7605</v>
       </c>
-      <c r="I27" s="1">
+      <c r="N27" s="3">
         <v>8846</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+    </row>
+    <row r="28" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>138274</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
+        <v>60339</v>
+      </c>
+      <c r="D28" s="3">
+        <v>77935</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="L28" s="3">
         <v>17449</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4">
-        <v>17449</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="M28" s="3">
         <v>8002</v>
       </c>
-      <c r="I28" s="4">
+      <c r="N28" s="3">
         <v>9447</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+    </row>
+    <row r="29" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2012</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>143289</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>62553</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>80736</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="L29" s="3">
         <v>17745</v>
       </c>
-      <c r="H29" s="1">
+      <c r="M29" s="3">
         <v>8231</v>
       </c>
-      <c r="I29" s="1">
+      <c r="N29" s="3">
         <v>9514</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+    </row>
+    <row r="30" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2013</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>145417</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>62769</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>82648</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="L30" s="3">
         <v>18570</v>
       </c>
-      <c r="H30" s="1">
+      <c r="M30" s="3">
         <v>8533</v>
       </c>
-      <c r="I30" s="1">
+      <c r="N30" s="3">
         <v>10037</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+    </row>
+    <row r="31" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>148684</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>64499</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>84185</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="L31" s="3">
         <v>18281</v>
       </c>
-      <c r="H31" s="4">
+      <c r="M31" s="3">
         <v>8280</v>
       </c>
-      <c r="I31" s="4">
+      <c r="N31" s="3">
         <v>10001</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+    </row>
+    <row r="32" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>71295</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>31171</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>40124</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>85436</v>
+      </c>
+      <c r="H32" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>49236</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
         <v>19007</v>
       </c>
-      <c r="H32" s="4">
+      <c r="M32" s="3">
         <v>8707</v>
       </c>
-      <c r="I32" s="4">
+      <c r="N32" s="3">
         <v>10300</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="4">
-        <v>85436</v>
-      </c>
-      <c r="M32" s="4">
-        <v>36200</v>
-      </c>
-      <c r="N32" s="4">
-        <v>49236</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+    </row>
+    <row r="33" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2016</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>153391</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>65908</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>87483</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="L33" s="3">
         <v>19518</v>
       </c>
-      <c r="H33" s="4">
+      <c r="M33" s="3">
         <v>8455</v>
       </c>
-      <c r="I33" s="4">
+      <c r="N33" s="3">
         <v>11063</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+    </row>
+    <row r="34" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2017</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>150639</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>64970</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>85669</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="4">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="L34" s="3">
         <v>19381</v>
       </c>
-      <c r="H34" s="4">
+      <c r="M34" s="3">
         <v>8430</v>
       </c>
-      <c r="I34" s="4">
+      <c r="N34" s="3">
         <v>10951</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+    </row>
+    <row r="35" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>147949</v>
+      </c>
+      <c r="C35" s="3">
+        <v>62822</v>
+      </c>
+      <c r="D35" s="3">
+        <v>85127</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="L35" s="3">
+        <v>19653</v>
+      </c>
+      <c r="M35" s="3">
+        <v>8373</v>
+      </c>
+      <c r="N35" s="3">
+        <v>11280</v>
+      </c>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+    </row>
+    <row r="36" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>139322</v>
+      </c>
+      <c r="C36" s="3">
+        <v>59258</v>
+      </c>
+      <c r="D36" s="3">
+        <v>80055</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>18680</v>
+      </c>
+      <c r="M36" s="3">
+        <v>7925</v>
+      </c>
+      <c r="N36" s="3">
+        <v>10755</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+    </row>
+    <row r="37" spans="1:83" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2826,11 +3808,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B584D46-225E-154A-B515-B7F444869813}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2842,6 +3822,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/data/candidate_counts.xlsx
+++ b/code/data/candidate_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ae3a9d5e04a1f7/work/programming/devt/r/work/sta/it-402-dc/sta_it_402/data/demographic_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="788" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B6E5EE3-ED3F-594E-B53F-023095946C60}"/>
+  <xr:revisionPtr revIDLastSave="849" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C83717DC-4F54-A84B-9C52-F6DD4E2166AD}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1300" windowWidth="25760" windowHeight="15160" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
+    <workbookView xWindow="7580" yWindow="1600" windowWidth="25760" windowHeight="15160" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
   </bookViews>
   <sheets>
     <sheet name="total_candidates" sheetId="1" r:id="rId1"/>
@@ -377,17 +377,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -399,21 +405,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,20 +430,20 @@
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="justify"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{01345298-F48A-A740-AB0D-3A3075D2D850}"/>
     <cellStyle name="Normal_SG SCE CSYS 00" xfId="1" xr:uid="{14526B87-521D-6D43-B5A8-BAE090B7966D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,7 +759,7 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BW15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -1097,17 +1101,17 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>35447</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>15366</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>20081</v>
       </c>
       <c r="G17" s="1">
@@ -1119,36 +1123,45 @@
       <c r="I17" s="1">
         <v>27876</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>62631</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>31234</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="4">
         <v>31397</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <v>8583</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>3800</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="5">
         <v>4783</v>
       </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD17" s="8">
+        <v>23660</v>
+      </c>
+      <c r="CE17" s="8">
+        <v>11409</v>
+      </c>
+      <c r="CF17" s="8">
+        <v>12251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>13102</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>5691</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>7411</v>
       </c>
       <c r="G18" s="2">
@@ -1173,30 +1186,39 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>62782</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>31797</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>30985</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="6">
         <v>5973</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="6">
         <v>2613</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="6">
         <v>3360</v>
       </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD18" s="8">
+        <v>32404</v>
+      </c>
+      <c r="CE18" s="8">
+        <v>15625</v>
+      </c>
+      <c r="CF18" s="8">
+        <v>16779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>469</v>
       </c>
       <c r="C19" s="1">
@@ -1225,26 +1247,35 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <v>62521</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="4">
         <v>31713</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="4">
         <v>30808</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA19" s="7">
         <v>423</v>
       </c>
       <c r="AB19" s="9">
         <v>131</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AC19" s="7">
         <v>292</v>
       </c>
-    </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD19" s="8">
+        <v>36092</v>
+      </c>
+      <c r="CE19" s="8">
+        <v>17404</v>
+      </c>
+      <c r="CF19" s="8">
+        <v>18688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -1268,8 +1299,17 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD20" s="8">
+        <v>38698</v>
+      </c>
+      <c r="CE20" s="8">
+        <v>18865</v>
+      </c>
+      <c r="CF20" s="8">
+        <v>19833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -1291,8 +1331,17 @@
       <c r="N21" s="2">
         <v>6010</v>
       </c>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD21" s="8">
+        <v>42516</v>
+      </c>
+      <c r="CE21" s="8">
+        <v>20139</v>
+      </c>
+      <c r="CF21" s="8">
+        <v>22377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -1316,8 +1365,17 @@
       <c r="N22" s="2">
         <v>5962</v>
       </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD22" s="8">
+        <v>46233</v>
+      </c>
+      <c r="CE22" s="8">
+        <v>21520</v>
+      </c>
+      <c r="CF22" s="8">
+        <v>24713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -1343,8 +1401,17 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD23" s="8">
+        <v>49627</v>
+      </c>
+      <c r="CE23" s="8">
+        <v>23120</v>
+      </c>
+      <c r="CF23" s="8">
+        <v>26507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -1366,8 +1433,17 @@
       <c r="N24" s="2">
         <v>5876</v>
       </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD24" s="8">
+        <v>54684</v>
+      </c>
+      <c r="CE24" s="8">
+        <v>25485</v>
+      </c>
+      <c r="CF24" s="8">
+        <v>29199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -1389,8 +1465,17 @@
       <c r="N25" s="2">
         <v>6343</v>
       </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD25" s="8">
+        <v>57479</v>
+      </c>
+      <c r="CE25" s="8">
+        <v>26634</v>
+      </c>
+      <c r="CF25" s="8">
+        <v>30845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -1414,8 +1499,17 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD26" s="10">
+        <v>61646</v>
+      </c>
+      <c r="CE26" s="10">
+        <v>28830</v>
+      </c>
+      <c r="CF26" s="10">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -1439,8 +1533,17 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD27" s="10">
+        <v>65742</v>
+      </c>
+      <c r="CE27" s="10">
+        <v>30950</v>
+      </c>
+      <c r="CF27" s="10">
+        <v>34792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -1466,8 +1569,17 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD28" s="10">
+        <v>67513</v>
+      </c>
+      <c r="CE28" s="10">
+        <v>31913</v>
+      </c>
+      <c r="CF28" s="10">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -1493,8 +1605,17 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD29" s="10">
+        <v>69170</v>
+      </c>
+      <c r="CE29" s="10">
+        <v>33132</v>
+      </c>
+      <c r="CF29" s="10">
+        <v>36038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -1520,17 +1641,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="BY30" s="4">
+      <c r="BY30" s="2">
         <v>41602</v>
       </c>
-      <c r="BZ30" s="4">
+      <c r="BZ30" s="2">
         <v>21551</v>
       </c>
-      <c r="CA30" s="4">
+      <c r="CA30" s="2">
         <v>20051</v>
       </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD30" s="10">
+        <v>70307</v>
+      </c>
+      <c r="CE30" s="10">
+        <v>33882</v>
+      </c>
+      <c r="CF30" s="10">
+        <v>36425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -1556,17 +1686,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="BT31" s="4">
+      <c r="BT31" s="2">
         <v>772</v>
       </c>
-      <c r="BU31" s="4">
+      <c r="BU31" s="2">
         <v>512</v>
       </c>
-      <c r="BV31" s="4">
+      <c r="BV31" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD31" s="8">
+        <v>44257</v>
+      </c>
+      <c r="CE31" s="8">
+        <v>21922</v>
+      </c>
+      <c r="CF31" s="8">
+        <v>22335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -1603,6 +1742,15 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="CD32" s="8">
+        <v>7854</v>
+      </c>
+      <c r="CE32" s="8">
+        <v>3850</v>
+      </c>
+      <c r="CF32" s="8">
+        <v>4004</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -1734,7 +1882,7 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BZ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -2019,13 +2167,13 @@
       <c r="D3" s="1">
         <v>88031</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="1">
         <v>32095</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="1">
         <v>16609</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="1">
         <v>15486</v>
       </c>
     </row>
@@ -2042,13 +2190,13 @@
       <c r="D4" s="1">
         <v>88920</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="1">
         <v>41080</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="1">
         <v>21476</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="1">
         <v>19604</v>
       </c>
     </row>
@@ -2220,17 +2368,17 @@
         <v>87270</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>46112</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>19965</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>26147</v>
       </c>
       <c r="G17" s="1">
@@ -2242,36 +2390,45 @@
       <c r="I17" s="1">
         <v>62128</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>452565</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>224182</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="4">
         <v>228383</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <v>13005</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>6120</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="5">
         <v>6885</v>
       </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD17" s="8">
+        <v>34590</v>
+      </c>
+      <c r="CE17" s="8">
+        <v>17126</v>
+      </c>
+      <c r="CF17" s="8">
+        <v>17464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>13278</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>5792</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>7486</v>
       </c>
       <c r="G18" s="2">
@@ -2296,30 +2453,39 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>459437</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>231241</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>228196</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="6">
         <v>7675</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18" s="6">
         <v>3455</v>
       </c>
-      <c r="AC18" s="11">
+      <c r="AC18" s="6">
         <v>4220</v>
       </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD18" s="8">
+        <v>59093</v>
+      </c>
+      <c r="CE18" s="8">
+        <v>29154</v>
+      </c>
+      <c r="CF18" s="8">
+        <v>29939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>469</v>
       </c>
       <c r="C19" s="1">
@@ -2348,26 +2514,35 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <v>456288</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="4">
         <v>229984</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="4">
         <v>226304</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA19" s="7">
         <v>423</v>
       </c>
       <c r="AB19" s="9">
         <v>131</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AC19" s="7">
         <v>292</v>
       </c>
-    </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD19" s="8">
+        <v>67509</v>
+      </c>
+      <c r="CE19" s="8">
+        <v>33626</v>
+      </c>
+      <c r="CF19" s="8">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -2391,8 +2566,17 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD20" s="8">
+        <v>72327</v>
+      </c>
+      <c r="CE20" s="8">
+        <v>36084</v>
+      </c>
+      <c r="CF20" s="8">
+        <v>36243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -2414,8 +2598,17 @@
       <c r="N21" s="2">
         <v>9145</v>
       </c>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD21" s="8">
+        <v>80283</v>
+      </c>
+      <c r="CE21" s="8">
+        <v>38642</v>
+      </c>
+      <c r="CF21" s="8">
+        <v>41641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -2439,8 +2632,17 @@
       <c r="N22" s="2">
         <v>8998</v>
       </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD22" s="8">
+        <v>87100</v>
+      </c>
+      <c r="CE22" s="8">
+        <v>40964</v>
+      </c>
+      <c r="CF22" s="8">
+        <v>46136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -2466,8 +2668,17 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD23" s="8">
+        <v>94686</v>
+      </c>
+      <c r="CE23" s="8">
+        <v>44752</v>
+      </c>
+      <c r="CF23" s="8">
+        <v>49934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -2489,8 +2700,17 @@
       <c r="N24" s="2">
         <v>9319</v>
       </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD24" s="8">
+        <v>107340</v>
+      </c>
+      <c r="CE24" s="8">
+        <v>50692</v>
+      </c>
+      <c r="CF24" s="8">
+        <v>56648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -2512,8 +2732,17 @@
       <c r="N25" s="2">
         <v>10107</v>
       </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD25" s="8">
+        <v>113388</v>
+      </c>
+      <c r="CE25" s="8">
+        <v>53283</v>
+      </c>
+      <c r="CF25" s="8">
+        <v>60105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -2537,8 +2766,17 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD26" s="10">
+        <v>122463</v>
+      </c>
+      <c r="CE26" s="10">
+        <v>58093</v>
+      </c>
+      <c r="CF26" s="10">
+        <v>64370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -2562,8 +2800,17 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD27" s="10">
+        <v>130497</v>
+      </c>
+      <c r="CE27" s="10">
+        <v>62476</v>
+      </c>
+      <c r="CF27" s="10">
+        <v>68021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -2589,8 +2836,17 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD28" s="10">
+        <v>134573</v>
+      </c>
+      <c r="CE28" s="10">
+        <v>64831</v>
+      </c>
+      <c r="CF28" s="10">
+        <v>69742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -2616,8 +2872,17 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD29" s="10">
+        <v>140145</v>
+      </c>
+      <c r="CE29" s="10">
+        <v>68168</v>
+      </c>
+      <c r="CF29" s="10">
+        <v>71977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -2643,17 +2908,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="BY30" s="12">
+      <c r="BY30" s="2">
         <v>69605</v>
       </c>
-      <c r="BZ30" s="12">
+      <c r="BZ30" s="2">
         <v>35899</v>
       </c>
-      <c r="CA30" s="12">
+      <c r="CA30" s="2">
         <v>33706</v>
       </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD30" s="10">
+        <v>144382</v>
+      </c>
+      <c r="CE30" s="10">
+        <v>70523</v>
+      </c>
+      <c r="CF30" s="10">
+        <v>73859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -2679,17 +2953,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="BT31" s="12">
+      <c r="BT31" s="2">
         <v>1154</v>
       </c>
-      <c r="BU31" s="12">
+      <c r="BU31" s="2">
         <v>766</v>
       </c>
-      <c r="BV31" s="12">
+      <c r="BV31" s="2">
         <v>388</v>
       </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD31" s="8">
+        <v>97124</v>
+      </c>
+      <c r="CE31" s="8">
+        <v>49667</v>
+      </c>
+      <c r="CF31" s="8">
+        <v>47457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -2726,6 +3009,15 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="CD32" s="8">
+        <v>10682</v>
+      </c>
+      <c r="CE32" s="8">
+        <v>5227</v>
+      </c>
+      <c r="CF32" s="8">
+        <v>5455</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2857,7 +3149,7 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BW6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BW10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -3142,13 +3434,13 @@
       <c r="D3" s="1">
         <v>58735</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="1">
         <v>13017</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="1">
         <v>6350</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="1">
         <v>6667</v>
       </c>
     </row>
@@ -3165,13 +3457,13 @@
       <c r="D4" s="1">
         <v>59037</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="1">
         <v>27779</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="1">
         <v>13993</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="1">
         <v>13786</v>
       </c>
     </row>
@@ -3343,17 +3635,17 @@
         <v>64044</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>32451</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>13328</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>19123</v>
       </c>
       <c r="G17" s="1">
@@ -3365,36 +3657,45 @@
       <c r="I17" s="1">
         <v>47939</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>436058</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>215310</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="4">
         <v>220748</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <v>10235</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>4500</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="5">
         <v>5735</v>
       </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD17" s="8">
+        <v>23314</v>
+      </c>
+      <c r="CE17" s="8">
+        <v>10943</v>
+      </c>
+      <c r="CF17" s="8">
+        <v>12371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>8973</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>3608</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>5365</v>
       </c>
       <c r="G18" s="2">
@@ -3419,30 +3720,39 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>443288</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>222288</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>221000</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="6">
         <v>6079</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="6">
         <v>2572</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="6">
         <v>3507</v>
       </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD18" s="8">
+        <v>41395</v>
+      </c>
+      <c r="CE18" s="8">
+        <v>19644</v>
+      </c>
+      <c r="CF18" s="8">
+        <v>21751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>252</v>
       </c>
       <c r="C19" s="1">
@@ -3471,26 +3781,35 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <v>441754</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="4">
         <v>221994</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="4">
         <v>219760</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="7">
         <v>393</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="9">
         <v>123</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="7">
         <v>270</v>
       </c>
-    </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD19" s="8">
+        <v>48258</v>
+      </c>
+      <c r="CE19" s="8">
+        <v>23459</v>
+      </c>
+      <c r="CF19" s="8">
+        <v>24799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -3514,8 +3833,17 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD20" s="8">
+        <v>51842</v>
+      </c>
+      <c r="CE20" s="8">
+        <v>25257</v>
+      </c>
+      <c r="CF20" s="8">
+        <v>26585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -3537,8 +3865,17 @@
       <c r="N21" s="2">
         <v>7148</v>
       </c>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD21" s="8">
+        <v>59587</v>
+      </c>
+      <c r="CE21" s="8">
+        <v>27817</v>
+      </c>
+      <c r="CF21" s="8">
+        <v>31770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -3562,8 +3899,17 @@
       <c r="N22" s="2">
         <v>7004</v>
       </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD22" s="8">
+        <v>66017</v>
+      </c>
+      <c r="CE22" s="8">
+        <v>30282</v>
+      </c>
+      <c r="CF22" s="8">
+        <v>35735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -3589,8 +3935,17 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD23" s="8">
+        <v>70498</v>
+      </c>
+      <c r="CE23" s="8">
+        <v>32716</v>
+      </c>
+      <c r="CF23" s="8">
+        <v>37782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -3612,8 +3967,17 @@
       <c r="N24" s="2">
         <v>7348</v>
       </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD24" s="8">
+        <v>82370</v>
+      </c>
+      <c r="CE24" s="8">
+        <v>38604</v>
+      </c>
+      <c r="CF24" s="8">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -3635,8 +3999,17 @@
       <c r="N25" s="2">
         <v>8039</v>
       </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD25" s="8">
+        <v>89972</v>
+      </c>
+      <c r="CE25" s="8">
+        <v>41620</v>
+      </c>
+      <c r="CF25" s="8">
+        <v>48352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -3660,8 +4033,17 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD26" s="10">
+        <v>97635</v>
+      </c>
+      <c r="CE26" s="10">
+        <v>45702</v>
+      </c>
+      <c r="CF26" s="10">
+        <v>51933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -3685,8 +4067,17 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD27" s="10">
+        <v>104972</v>
+      </c>
+      <c r="CE27" s="10">
+        <v>49315</v>
+      </c>
+      <c r="CF27" s="10">
+        <v>55657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -3712,8 +4103,17 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD28" s="10">
+        <v>109775</v>
+      </c>
+      <c r="CE28" s="10">
+        <v>52067</v>
+      </c>
+      <c r="CF28" s="10">
+        <v>57708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -3739,8 +4139,17 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD29" s="10">
+        <v>114745</v>
+      </c>
+      <c r="CE29" s="10">
+        <v>54871</v>
+      </c>
+      <c r="CF29" s="10">
+        <v>59874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -3766,17 +4175,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="BY30" s="12">
+      <c r="BY30" s="2">
         <v>55159</v>
       </c>
-      <c r="BZ30" s="12">
+      <c r="BZ30" s="2">
         <v>27742</v>
       </c>
-      <c r="CA30" s="12">
+      <c r="CA30" s="2">
         <v>27417</v>
       </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD30" s="10">
+        <v>120138</v>
+      </c>
+      <c r="CE30" s="10">
+        <v>57530</v>
+      </c>
+      <c r="CF30" s="10">
+        <v>62608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -3802,17 +4220,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="BT31" s="12">
+      <c r="BT31" s="2">
         <v>903</v>
       </c>
-      <c r="BU31" s="12">
+      <c r="BU31" s="2">
         <v>595</v>
       </c>
-      <c r="BV31" s="12">
+      <c r="BV31" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CD31" s="8">
+        <v>75938</v>
+      </c>
+      <c r="CE31" s="8">
+        <v>37830</v>
+      </c>
+      <c r="CF31" s="8">
+        <v>38108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -3849,6 +4276,15 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="CD32" s="8">
+        <v>7858</v>
+      </c>
+      <c r="CE32" s="8">
+        <v>3740</v>
+      </c>
+      <c r="CF32" s="8">
+        <v>4118</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">

--- a/code/data/candidate_counts.xlsx
+++ b/code/data/candidate_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ae3a9d5e04a1f7/work/programming/devt/r/work/sta/it-402-dc/sta_it_402/data/demographic_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc2bdd364c40744/Documents/STA/Dresscode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="849" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C83717DC-4F54-A84B-9C52-F6DD4E2166AD}"/>
+  <xr:revisionPtr revIDLastSave="1282" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13AE0DC0-FF90-435E-9166-08396A9B8F9E}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="1600" windowWidth="25760" windowHeight="15160" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
+    <workbookView xWindow="10476" yWindow="216" windowWidth="12492" windowHeight="11652" firstSheet="1" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
   </bookViews>
   <sheets>
     <sheet name="total_candidates" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="95">
   <si>
     <t>all-National2</t>
   </si>
@@ -329,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,11 +375,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,7 +402,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
@@ -423,7 +417,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,18 +753,18 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BW15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BY17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="BY33" sqref="BY33:CC36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1030,78 +1024,78 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
@@ -1141,6 +1135,21 @@
       <c r="AC17" s="5">
         <v>4783</v>
       </c>
+      <c r="BY17" s="1">
+        <v>6695</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>3061</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>3634</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD17" s="8">
         <v>23660</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>12251</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -1204,6 +1213,21 @@
       <c r="AC18" s="6">
         <v>3360</v>
       </c>
+      <c r="BY18" s="1">
+        <v>10841</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>5096</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>5745</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD18" s="8">
         <v>32404</v>
       </c>
@@ -1214,7 +1238,7 @@
         <v>16779</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -1265,6 +1289,21 @@
       <c r="AC19" s="7">
         <v>292</v>
       </c>
+      <c r="BY19" s="1">
+        <v>13925</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>6633</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>7292</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD19" s="8">
         <v>36092</v>
       </c>
@@ -1275,7 +1314,7 @@
         <v>18688</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -1299,6 +1338,21 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
+      <c r="BY20" s="1">
+        <v>17693</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>8665</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>9028</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD20" s="8">
         <v>38698</v>
       </c>
@@ -1309,7 +1363,7 @@
         <v>19833</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -1331,6 +1385,21 @@
       <c r="N21" s="2">
         <v>6010</v>
       </c>
+      <c r="BY21" s="1">
+        <v>22720</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>11079</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>11641</v>
+      </c>
+      <c r="CB21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD21" s="8">
         <v>42516</v>
       </c>
@@ -1341,7 +1410,7 @@
         <v>22377</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -1365,6 +1434,21 @@
       <c r="N22" s="2">
         <v>5962</v>
       </c>
+      <c r="BY22" s="1">
+        <v>26906</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>13057</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>13849</v>
+      </c>
+      <c r="CB22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD22" s="8">
         <v>46233</v>
       </c>
@@ -1375,7 +1459,7 @@
         <v>24713</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -1401,6 +1485,21 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
+      <c r="BY23" s="1">
+        <v>32352</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>15915</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>16437</v>
+      </c>
+      <c r="CB23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC23" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD23" s="8">
         <v>49627</v>
       </c>
@@ -1411,7 +1510,7 @@
         <v>26507</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -1433,6 +1532,21 @@
       <c r="N24" s="2">
         <v>5876</v>
       </c>
+      <c r="BY24" s="1">
+        <v>37490</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>18494</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>18996</v>
+      </c>
+      <c r="CB24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD24" s="8">
         <v>54684</v>
       </c>
@@ -1443,7 +1557,7 @@
         <v>29199</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -1465,6 +1579,21 @@
       <c r="N25" s="2">
         <v>6343</v>
       </c>
+      <c r="BY25" s="1">
+        <v>40693</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>20319</v>
+      </c>
+      <c r="CA25" s="1">
+        <v>20374</v>
+      </c>
+      <c r="CB25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD25" s="8">
         <v>57479</v>
       </c>
@@ -1475,7 +1604,7 @@
         <v>30845</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -1499,6 +1628,21 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
+      <c r="BY26" s="1">
+        <v>43061</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>21534</v>
+      </c>
+      <c r="CA26" s="1">
+        <v>21527</v>
+      </c>
+      <c r="CB26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD26" s="10">
         <v>61646</v>
       </c>
@@ -1509,7 +1653,7 @@
         <v>32816</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -1533,6 +1677,21 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
+      <c r="BY27" s="1">
+        <v>44837</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>22422</v>
+      </c>
+      <c r="CA27" s="1">
+        <v>22415</v>
+      </c>
+      <c r="CB27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC27" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD27" s="10">
         <v>65742</v>
       </c>
@@ -1543,7 +1702,7 @@
         <v>34792</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -1569,6 +1728,21 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
+      <c r="BY28" s="1">
+        <v>45645</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>23132</v>
+      </c>
+      <c r="CA28" s="1">
+        <v>22513</v>
+      </c>
+      <c r="CB28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD28" s="10">
         <v>67513</v>
       </c>
@@ -1579,7 +1753,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -1605,6 +1779,21 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
+      <c r="BY29" s="1">
+        <v>45882</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>23666</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>22216</v>
+      </c>
+      <c r="CB29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD29" s="10">
         <v>69170</v>
       </c>
@@ -1615,7 +1804,7 @@
         <v>36038</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -1650,6 +1839,12 @@
       <c r="CA30" s="2">
         <v>20051</v>
       </c>
+      <c r="CB30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC30" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD30" s="10">
         <v>70307</v>
       </c>
@@ -1660,7 +1855,7 @@
         <v>36425</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -1686,6 +1881,36 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="BJ31" s="1">
+        <v>40641</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>21537</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>19104</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>16650</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>10135</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>6515</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BT31" s="2">
         <v>772</v>
       </c>
@@ -1695,6 +1920,21 @@
       <c r="BV31" s="2">
         <v>260</v>
       </c>
+      <c r="BY31" s="1">
+        <v>12241</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>6775</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>5466</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD31" s="8">
         <v>44257</v>
       </c>
@@ -1705,7 +1945,7 @@
         <v>22335</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -1742,6 +1982,51 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="BJ32" s="1">
+        <v>53111</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>28377</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>24734</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>10895</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>6389</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>4506</v>
+      </c>
+      <c r="BR32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>1394</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>708</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>686</v>
+      </c>
+      <c r="CB32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC32" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD32" s="8">
         <v>7854</v>
       </c>
@@ -1752,7 +2037,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -1779,8 +2064,53 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ33" s="1">
+        <v>53219</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>28499</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>24720</v>
+      </c>
+      <c r="BM33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>11223</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>6529</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>4694</v>
+      </c>
+      <c r="BR33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -1806,8 +2136,53 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ34" s="1">
+        <v>51970</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>27567</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>24403</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>10465</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>6081</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>4384</v>
+      </c>
+      <c r="BR34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -1831,8 +2206,53 @@
       <c r="N35" s="2">
         <v>8198</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ35" s="1">
+        <v>46774</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>24763</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>22011</v>
+      </c>
+      <c r="BM35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>10795</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>6354</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>4441</v>
+      </c>
+      <c r="BR35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -1866,8 +2286,53 @@
       <c r="P36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ36" s="1">
+        <v>46544</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>25029</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>21512</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>11380</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>6734</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>4645</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -1882,18 +2347,18 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BZ8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BY17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="CD32" sqref="CD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2153,8 +2618,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
@@ -2177,7 +2642,7 @@
         <v>15486</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
@@ -2200,7 +2665,7 @@
         <v>19604</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
@@ -2214,7 +2679,7 @@
         <v>91167</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
@@ -2228,7 +2693,7 @@
         <v>89578</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
@@ -2242,7 +2707,7 @@
         <v>84037</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
@@ -2256,7 +2721,7 @@
         <v>85034</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
@@ -2270,7 +2735,7 @@
         <v>85765</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
@@ -2284,7 +2749,7 @@
         <v>86130</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
@@ -2298,7 +2763,7 @@
         <v>87403</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
@@ -2312,7 +2777,7 @@
         <v>87154</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
@@ -2326,7 +2791,7 @@
         <v>88784</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
@@ -2340,7 +2805,7 @@
         <v>88920</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
@@ -2354,7 +2819,7 @@
         <v>89517</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
@@ -2368,7 +2833,7 @@
         <v>87270</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
@@ -2408,6 +2873,21 @@
       <c r="AC17" s="5">
         <v>6885</v>
       </c>
+      <c r="BY17" s="1">
+        <v>8096</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>3706</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>4390</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD17" s="8">
         <v>34590</v>
       </c>
@@ -2418,7 +2898,7 @@
         <v>17464</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -2471,6 +2951,21 @@
       <c r="AC18" s="6">
         <v>4220</v>
       </c>
+      <c r="BY18" s="1">
+        <v>15981</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>7534</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>8447</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD18" s="8">
         <v>59093</v>
       </c>
@@ -2481,7 +2976,7 @@
         <v>29939</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -2532,6 +3027,21 @@
       <c r="AC19" s="7">
         <v>292</v>
       </c>
+      <c r="BY19" s="1">
+        <v>20352</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>9826</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>10526</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD19" s="8">
         <v>67509</v>
       </c>
@@ -2542,7 +3052,7 @@
         <v>33883</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -2566,6 +3076,21 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
+      <c r="BY20" s="1">
+        <v>24613</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>12157</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>12456</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD20" s="8">
         <v>72327</v>
       </c>
@@ -2576,7 +3101,7 @@
         <v>36243</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -2598,6 +3123,21 @@
       <c r="N21" s="2">
         <v>9145</v>
       </c>
+      <c r="BY21" s="1">
+        <v>31231</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>15168</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>16063</v>
+      </c>
+      <c r="CB21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD21" s="8">
         <v>80283</v>
       </c>
@@ -2608,7 +3148,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -2632,6 +3172,21 @@
       <c r="N22" s="2">
         <v>8998</v>
       </c>
+      <c r="BY22" s="1">
+        <v>36653</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>17678</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>18975</v>
+      </c>
+      <c r="CB22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD22" s="8">
         <v>87100</v>
       </c>
@@ -2642,7 +3197,7 @@
         <v>46136</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -2668,6 +3223,21 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
+      <c r="BY23" s="1">
+        <v>45174</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>22323</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>22851</v>
+      </c>
+      <c r="CB23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC23" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD23" s="8">
         <v>94686</v>
       </c>
@@ -2678,7 +3248,7 @@
         <v>49934</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -2700,6 +3270,21 @@
       <c r="N24" s="2">
         <v>9319</v>
       </c>
+      <c r="BY24" s="1">
+        <v>53840</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>26455</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>27385</v>
+      </c>
+      <c r="CB24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD24" s="8">
         <v>107340</v>
       </c>
@@ -2710,7 +3295,7 @@
         <v>56648</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -2732,6 +3317,21 @@
       <c r="N25" s="2">
         <v>10107</v>
       </c>
+      <c r="BY25" s="1">
+        <v>60267</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>29769</v>
+      </c>
+      <c r="CA25" s="1">
+        <v>30498</v>
+      </c>
+      <c r="CB25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD25" s="8">
         <v>113388</v>
       </c>
@@ -2742,7 +3342,7 @@
         <v>60105</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -2766,6 +3366,21 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
+      <c r="BY26" s="1">
+        <v>65735</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>32752</v>
+      </c>
+      <c r="CA26" s="1">
+        <v>32983</v>
+      </c>
+      <c r="CB26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD26" s="10">
         <v>122463</v>
       </c>
@@ -2776,7 +3391,7 @@
         <v>64370</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -2800,6 +3415,21 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
+      <c r="BY27" s="1">
+        <v>69834</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>34870</v>
+      </c>
+      <c r="CA27" s="1">
+        <v>34964</v>
+      </c>
+      <c r="CB27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC27" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD27" s="10">
         <v>130497</v>
       </c>
@@ -2810,7 +3440,7 @@
         <v>68021</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -2836,6 +3466,21 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
+      <c r="BY28" s="1">
+        <v>72324</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>36585</v>
+      </c>
+      <c r="CA28" s="1">
+        <v>35739</v>
+      </c>
+      <c r="CB28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD28" s="10">
         <v>134573</v>
       </c>
@@ -2846,7 +3491,7 @@
         <v>69742</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -2872,6 +3517,21 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
+      <c r="BY29" s="1">
+        <v>74383</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>38157</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>36226</v>
+      </c>
+      <c r="CB29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD29" s="10">
         <v>140145</v>
       </c>
@@ -2882,7 +3542,7 @@
         <v>71977</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -2917,6 +3577,12 @@
       <c r="CA30" s="2">
         <v>33706</v>
       </c>
+      <c r="CB30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC30" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD30" s="10">
         <v>144382</v>
       </c>
@@ -2927,7 +3593,7 @@
         <v>73859</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -2953,6 +3619,36 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="BJ31" s="1">
+        <v>131711</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>72910</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>58801</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>10240</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>6035</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>4205</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BT31" s="2">
         <v>1154</v>
       </c>
@@ -2962,6 +3658,21 @@
       <c r="BV31" s="2">
         <v>388</v>
       </c>
+      <c r="BY31" s="1">
+        <v>18679</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>10584</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>8095</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD31" s="8">
         <v>97124</v>
       </c>
@@ -2972,7 +3683,7 @@
         <v>47457</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -3009,6 +3720,51 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="BJ32" s="1">
+        <v>140151</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>78441</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>61710</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>17525</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>10455</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>7070</v>
+      </c>
+      <c r="BR32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>1553</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>792</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>761</v>
+      </c>
+      <c r="CB32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC32" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD32" s="8">
         <v>10682</v>
       </c>
@@ -3019,7 +3775,7 @@
         <v>5455</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -3046,8 +3802,53 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ33" s="1">
+        <v>131747</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>73643</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>58104</v>
+      </c>
+      <c r="BM33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>18596</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>11292</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>7304</v>
+      </c>
+      <c r="BR33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -3073,8 +3874,53 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ34" s="1">
+        <v>125649</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>70188</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>55461</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>17282</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>10360</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>6922</v>
+      </c>
+      <c r="BR34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -3098,8 +3944,53 @@
       <c r="N35" s="2">
         <v>13445</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ35" s="1">
+        <v>109644</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>61471</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>48173</v>
+      </c>
+      <c r="BM35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>17905</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>10845</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>7060</v>
+      </c>
+      <c r="BR35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -3133,8 +4024,53 @@
       <c r="P36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ36" s="1">
+        <v>107999</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>61212</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>46783</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>19285</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>11804</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>7480</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -3149,18 +4085,18 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BW10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BY17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="CD32" sqref="CD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3420,8 +4356,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
@@ -3444,7 +4380,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
@@ -3467,7 +4403,7 @@
         <v>13786</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
@@ -3481,7 +4417,7 @@
         <v>61514</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
@@ -3495,7 +4431,7 @@
         <v>61786</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
@@ -3509,7 +4445,7 @@
         <v>57072</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
@@ -3523,7 +4459,7 @@
         <v>59021</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
@@ -3537,7 +4473,7 @@
         <v>59526</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
@@ -3551,7 +4487,7 @@
         <v>59987</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
@@ -3565,7 +4501,7 @@
         <v>61343</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
@@ -3579,7 +4515,7 @@
         <v>62429</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
@@ -3593,7 +4529,7 @@
         <v>63041</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
@@ -3607,7 +4543,7 @@
         <v>65364</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
@@ -3621,7 +4557,7 @@
         <v>64854</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
@@ -3635,7 +4571,7 @@
         <v>64044</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
@@ -3675,6 +4611,21 @@
       <c r="AC17" s="5">
         <v>5735</v>
       </c>
+      <c r="BY17" s="1">
+        <v>5804</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>2535</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>3269</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD17" s="8">
         <v>23314</v>
       </c>
@@ -3685,7 +4636,7 @@
         <v>12371</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -3738,6 +4689,21 @@
       <c r="AC18" s="6">
         <v>3507</v>
       </c>
+      <c r="BY18" s="1">
+        <v>10444</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>4706</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>5738</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD18" s="8">
         <v>41395</v>
       </c>
@@ -3748,7 +4714,7 @@
         <v>21751</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -3799,6 +4765,21 @@
       <c r="AC19" s="7">
         <v>270</v>
       </c>
+      <c r="BY19" s="1">
+        <v>13280</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>6215</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>7065</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD19" s="8">
         <v>48258</v>
       </c>
@@ -3809,7 +4790,7 @@
         <v>24799</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -3833,6 +4814,21 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
+      <c r="BY20" s="1">
+        <v>16336</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>7655</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>8681</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD20" s="8">
         <v>51842</v>
       </c>
@@ -3843,7 +4839,7 @@
         <v>26585</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -3865,6 +4861,21 @@
       <c r="N21" s="2">
         <v>7148</v>
       </c>
+      <c r="BY21" s="1">
+        <v>20529</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>9376</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>11153</v>
+      </c>
+      <c r="CB21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD21" s="8">
         <v>59587</v>
       </c>
@@ -3875,7 +4886,7 @@
         <v>31770</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -3899,6 +4910,21 @@
       <c r="N22" s="2">
         <v>7004</v>
       </c>
+      <c r="BY22" s="1">
+        <v>25362</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>11658</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>13704</v>
+      </c>
+      <c r="CB22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD22" s="8">
         <v>66017</v>
       </c>
@@ -3909,7 +4935,7 @@
         <v>35735</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -3935,6 +4961,21 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
+      <c r="BY23" s="1">
+        <v>32582</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>15711</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>16871</v>
+      </c>
+      <c r="CB23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC23" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD23" s="8">
         <v>70498</v>
       </c>
@@ -3945,7 +4986,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -3967,6 +5008,21 @@
       <c r="N24" s="2">
         <v>7348</v>
       </c>
+      <c r="BY24" s="1">
+        <v>39163</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>18767</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>20396</v>
+      </c>
+      <c r="CB24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD24" s="8">
         <v>82370</v>
       </c>
@@ -3977,7 +5033,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -3999,6 +5055,21 @@
       <c r="N25" s="2">
         <v>8039</v>
       </c>
+      <c r="BY25" s="1">
+        <v>45066</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>21979</v>
+      </c>
+      <c r="CA25" s="1">
+        <v>23087</v>
+      </c>
+      <c r="CB25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD25" s="8">
         <v>89972</v>
       </c>
@@ -4009,7 +5080,7 @@
         <v>48352</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -4033,6 +5104,21 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
+      <c r="BY26" s="1">
+        <v>49675</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>24293</v>
+      </c>
+      <c r="CA26" s="1">
+        <v>25382</v>
+      </c>
+      <c r="CB26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD26" s="10">
         <v>97635</v>
       </c>
@@ -4043,7 +5129,7 @@
         <v>51933</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -4067,6 +5153,21 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
+      <c r="BY27" s="1">
+        <v>52115</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>25473</v>
+      </c>
+      <c r="CA27" s="1">
+        <v>26642</v>
+      </c>
+      <c r="CB27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC27" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD27" s="10">
         <v>104972</v>
       </c>
@@ -4077,7 +5178,7 @@
         <v>55657</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -4103,6 +5204,21 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
+      <c r="BY28" s="1">
+        <v>55963</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>27579</v>
+      </c>
+      <c r="CA28" s="1">
+        <v>28384</v>
+      </c>
+      <c r="CB28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD28" s="10">
         <v>109775</v>
       </c>
@@ -4113,7 +5229,7 @@
         <v>57708</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -4139,6 +5255,21 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
+      <c r="BY29" s="1">
+        <v>57966</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>29185</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>28781</v>
+      </c>
+      <c r="CB29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD29" s="10">
         <v>114745</v>
       </c>
@@ -4149,7 +5280,7 @@
         <v>59874</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -4184,6 +5315,12 @@
       <c r="CA30" s="2">
         <v>27417</v>
       </c>
+      <c r="CB30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC30" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD30" s="10">
         <v>120138</v>
       </c>
@@ -4194,7 +5331,7 @@
         <v>62608</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -4220,6 +5357,30 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="BJ31" s="1">
+        <v>123734</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>68139</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>55595</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>15095</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>9185</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>5910</v>
+      </c>
       <c r="BT31" s="2">
         <v>903</v>
       </c>
@@ -4229,6 +5390,21 @@
       <c r="BV31" s="2">
         <v>308</v>
       </c>
+      <c r="BY31" s="1">
+        <v>13738</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>7701</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>6037</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD31" s="8">
         <v>75938</v>
       </c>
@@ -4239,7 +5415,7 @@
         <v>38108</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -4276,6 +5452,51 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="BJ32" s="1">
+        <v>132041</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>73737</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>58304</v>
+      </c>
+      <c r="BM32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>16072</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>9626</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>6446</v>
+      </c>
+      <c r="BR32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>1179</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>606</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>573</v>
+      </c>
+      <c r="CB32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC32" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="CD32" s="8">
         <v>7858</v>
       </c>
@@ -4286,7 +5507,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -4313,8 +5534,53 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ33" s="1">
+        <v>124141</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>69279</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>54862</v>
+      </c>
+      <c r="BM33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>16894</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>10270</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>6624</v>
+      </c>
+      <c r="BR33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -4340,8 +5606,53 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ34" s="1">
+        <v>117828</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>65663</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>52165</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>15799</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>9425</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>6374</v>
+      </c>
+      <c r="BR34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -4365,8 +5676,53 @@
       <c r="N35" s="2">
         <v>11280</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ35" s="1">
+        <v>101067</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>56587</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>44480</v>
+      </c>
+      <c r="BM35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>16473</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>9985</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>6488</v>
+      </c>
+      <c r="BR35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -4400,8 +5756,53 @@
       <c r="P36" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="BJ36" s="1">
+        <v>97221</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>54899</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>42318</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>17157</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>10482</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>6674</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -4420,9 +5821,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4430,32 +5831,32 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>83</v>
       </c>

--- a/code/data/candidate_counts.xlsx
+++ b/code/data/candidate_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc2bdd364c40744/Documents/STA/Dresscode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1282" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13AE0DC0-FF90-435E-9166-08396A9B8F9E}"/>
+  <xr:revisionPtr revIDLastSave="1363" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1F7CE4A-8DF4-4D9A-99B2-46E2FD5E27F8}"/>
   <bookViews>
-    <workbookView xWindow="10476" yWindow="216" windowWidth="12492" windowHeight="11652" firstSheet="1" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
+    <workbookView xWindow="10932" yWindow="900" windowWidth="11820" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
   </bookViews>
   <sheets>
     <sheet name="total_candidates" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="95">
   <si>
     <t>all-National2</t>
   </si>
@@ -753,10 +753,10 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BY17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BU20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BY33" sqref="BY33:CC36"/>
+      <selection pane="bottomRight" activeCell="BY36" sqref="BY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1920,6 +1920,12 @@
       <c r="BV31" s="2">
         <v>260</v>
       </c>
+      <c r="BW31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY31" s="1">
         <v>12241</v>
       </c>
@@ -2010,6 +2016,21 @@
         <v>78</v>
       </c>
       <c r="BS32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>1072</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>675</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>397</v>
+      </c>
+      <c r="BW32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BY32" s="1">
@@ -2094,6 +2115,21 @@
       <c r="BS33" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT33" s="1">
+        <v>1297</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>832</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>465</v>
+      </c>
+      <c r="BW33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX33" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY33" s="1" t="s">
         <v>78</v>
       </c>
@@ -2166,6 +2202,21 @@
       <c r="BS34" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT34" s="1">
+        <v>1122</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>703</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>419</v>
+      </c>
+      <c r="BW34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX34" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2236,6 +2287,21 @@
       <c r="BS35" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT35" s="1">
+        <v>1213</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>783</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>430</v>
+      </c>
+      <c r="BW35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2314,6 +2380,21 @@
         <v>1</v>
       </c>
       <c r="BS36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>1202</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>802</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>400</v>
+      </c>
+      <c r="BW36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BY36" s="1" t="s">
@@ -2347,10 +2428,10 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BY17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BU21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CD32" sqref="CD32"/>
+      <selection pane="bottomRight" activeCell="BY36" sqref="BY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3658,6 +3739,12 @@
       <c r="BV31" s="2">
         <v>388</v>
       </c>
+      <c r="BW31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY31" s="1">
         <v>18679</v>
       </c>
@@ -3748,6 +3835,21 @@
         <v>78</v>
       </c>
       <c r="BS32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>1933</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>1212</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>721</v>
+      </c>
+      <c r="BW32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BY32" s="1">
@@ -3832,6 +3934,21 @@
       <c r="BS33" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT33" s="1">
+        <v>2465</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>1581</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>884</v>
+      </c>
+      <c r="BW33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX33" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY33" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,6 +4021,21 @@
       <c r="BS34" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT34" s="1">
+        <v>1915</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>1190</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>725</v>
+      </c>
+      <c r="BW34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX34" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY34" s="1" t="s">
         <v>78</v>
       </c>
@@ -3974,6 +4106,21 @@
       <c r="BS35" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT35" s="1">
+        <v>2105</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>1348</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>757</v>
+      </c>
+      <c r="BW35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY35" s="1" t="s">
         <v>78</v>
       </c>
@@ -4052,6 +4199,21 @@
         <v>1</v>
       </c>
       <c r="BS36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>2044</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>1359</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>685</v>
+      </c>
+      <c r="BW36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BY36" s="1" t="s">
@@ -4085,10 +4247,10 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BY17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BU20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CD32" sqref="CD32"/>
+      <selection pane="bottomRight" activeCell="BY36" sqref="BY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5390,6 +5552,12 @@
       <c r="BV31" s="2">
         <v>308</v>
       </c>
+      <c r="BW31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY31" s="1">
         <v>13738</v>
       </c>
@@ -5480,6 +5648,21 @@
         <v>78</v>
       </c>
       <c r="BS32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>1545</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>966</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>579</v>
+      </c>
+      <c r="BW32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BY32" s="1">
@@ -5564,6 +5747,21 @@
       <c r="BS33" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT33" s="1">
+        <v>1923</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>1216</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>707</v>
+      </c>
+      <c r="BW33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX33" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY33" s="1" t="s">
         <v>78</v>
       </c>
@@ -5636,6 +5834,21 @@
       <c r="BS34" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT34" s="1">
+        <v>1594</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>991</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>603</v>
+      </c>
+      <c r="BW34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX34" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY34" s="1" t="s">
         <v>78</v>
       </c>
@@ -5706,6 +5919,21 @@
       <c r="BS35" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="BT35" s="1">
+        <v>1740</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>1109</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>631</v>
+      </c>
+      <c r="BW35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BY35" s="1" t="s">
         <v>78</v>
       </c>
@@ -5784,6 +6012,21 @@
         <v>1</v>
       </c>
       <c r="BS36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>1629</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>1079</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>550</v>
+      </c>
+      <c r="BW36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BY36" s="1" t="s">

--- a/code/data/candidate_counts.xlsx
+++ b/code/data/candidate_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc2bdd364c40744/Documents/STA/Dresscode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ae3a9d5e04a1f7/work/programming/devt/r/work/sta/it-402-dc/sta_it_402/data/demographic_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1363" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1F7CE4A-8DF4-4D9A-99B2-46E2FD5E27F8}"/>
+  <xr:revisionPtr revIDLastSave="924" documentId="8_{12DB0E01-272D-3345-9D4A-E9BABBACF14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA965EEF-32D2-B34A-AF0E-62DEBC200D54}"/>
   <bookViews>
-    <workbookView xWindow="10932" yWindow="900" windowWidth="11820" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
+    <workbookView xWindow="14860" yWindow="1660" windowWidth="25760" windowHeight="15160" xr2:uid="{561839FE-D5DF-5443-A07F-CBA9FC630A07}"/>
   </bookViews>
   <sheets>
     <sheet name="total_candidates" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
   <si>
     <t>all-National2</t>
   </si>
@@ -275,9 +276,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>National2 - not graded, so pass here means attainment</t>
-  </si>
-  <si>
     <t>2002 Higher values calculated from percentages - rounding errors exist</t>
   </si>
   <si>
@@ -321,6 +319,15 @@
   </si>
   <si>
     <t>NA-Intermediate2</t>
+  </si>
+  <si>
+    <t>National2-4 - not graded, so pass here means attainment</t>
+  </si>
+  <si>
+    <t>2020 gender distribution totals for the most part differ significantly from records for all</t>
+  </si>
+  <si>
+    <t>2020 candidate counts missing; passes and entries taken from totals on detail sheets</t>
   </si>
 </sst>
 </file>
@@ -328,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,13 +377,24 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +403,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -398,14 +422,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,22 +465,36 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -752,19 +814,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6316DF-2C2C-D245-ACB0-D74793DD2100}">
   <dimension ref="A1:CH37"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BV9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BY36" sqref="BY36"/>
+      <selection pane="bottomRight" activeCell="BX15" sqref="BX15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -994,108 +1056,108 @@
         <v>77</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CH1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
@@ -1135,32 +1197,26 @@
       <c r="AC17" s="5">
         <v>4783</v>
       </c>
-      <c r="BY17" s="1">
+      <c r="BY17" s="18">
         <v>6695</v>
       </c>
-      <c r="BZ17" s="1">
+      <c r="BZ17" s="18">
         <v>3061</v>
       </c>
-      <c r="CA17" s="1">
+      <c r="CA17" s="18">
         <v>3634</v>
       </c>
-      <c r="CB17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD17" s="8">
+      <c r="CD17" s="9">
         <v>23660</v>
       </c>
-      <c r="CE17" s="8">
+      <c r="CE17" s="9">
         <v>11409</v>
       </c>
-      <c r="CF17" s="8">
+      <c r="CF17" s="9">
         <v>12251</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -1213,32 +1269,26 @@
       <c r="AC18" s="6">
         <v>3360</v>
       </c>
-      <c r="BY18" s="1">
+      <c r="BY18" s="18">
         <v>10841</v>
       </c>
-      <c r="BZ18" s="1">
+      <c r="BZ18" s="18">
         <v>5096</v>
       </c>
-      <c r="CA18" s="1">
+      <c r="CA18" s="18">
         <v>5745</v>
       </c>
-      <c r="CB18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD18" s="8">
+      <c r="CD18" s="9">
         <v>32404</v>
       </c>
-      <c r="CE18" s="8">
+      <c r="CE18" s="9">
         <v>15625</v>
       </c>
-      <c r="CF18" s="8">
+      <c r="CF18" s="9">
         <v>16779</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -1283,38 +1333,32 @@
       <c r="AA19" s="7">
         <v>423</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="10">
         <v>131</v>
       </c>
       <c r="AC19" s="7">
         <v>292</v>
       </c>
-      <c r="BY19" s="1">
+      <c r="BY19" s="18">
         <v>13925</v>
       </c>
-      <c r="BZ19" s="1">
+      <c r="BZ19" s="18">
         <v>6633</v>
       </c>
-      <c r="CA19" s="1">
+      <c r="CA19" s="18">
         <v>7292</v>
       </c>
-      <c r="CB19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD19" s="8">
+      <c r="CD19" s="9">
         <v>36092</v>
       </c>
-      <c r="CE19" s="8">
+      <c r="CE19" s="9">
         <v>17404</v>
       </c>
-      <c r="CF19" s="8">
+      <c r="CF19" s="9">
         <v>18688</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -1338,32 +1382,26 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="BY20" s="1">
+      <c r="BY20" s="18">
         <v>17693</v>
       </c>
-      <c r="BZ20" s="1">
+      <c r="BZ20" s="18">
         <v>8665</v>
       </c>
-      <c r="CA20" s="1">
+      <c r="CA20" s="18">
         <v>9028</v>
       </c>
-      <c r="CB20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD20" s="8">
+      <c r="CD20" s="9">
         <v>38698</v>
       </c>
-      <c r="CE20" s="8">
+      <c r="CE20" s="9">
         <v>18865</v>
       </c>
-      <c r="CF20" s="8">
+      <c r="CF20" s="9">
         <v>19833</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -1385,32 +1423,26 @@
       <c r="N21" s="2">
         <v>6010</v>
       </c>
-      <c r="BY21" s="1">
+      <c r="BY21" s="18">
         <v>22720</v>
       </c>
-      <c r="BZ21" s="1">
+      <c r="BZ21" s="18">
         <v>11079</v>
       </c>
-      <c r="CA21" s="1">
+      <c r="CA21" s="18">
         <v>11641</v>
       </c>
-      <c r="CB21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD21" s="8">
+      <c r="CD21" s="9">
         <v>42516</v>
       </c>
-      <c r="CE21" s="8">
+      <c r="CE21" s="9">
         <v>20139</v>
       </c>
-      <c r="CF21" s="8">
+      <c r="CF21" s="9">
         <v>22377</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -1434,32 +1466,26 @@
       <c r="N22" s="2">
         <v>5962</v>
       </c>
-      <c r="BY22" s="1">
+      <c r="BY22" s="18">
         <v>26906</v>
       </c>
-      <c r="BZ22" s="1">
+      <c r="BZ22" s="18">
         <v>13057</v>
       </c>
-      <c r="CA22" s="1">
+      <c r="CA22" s="18">
         <v>13849</v>
       </c>
-      <c r="CB22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD22" s="8">
+      <c r="CD22" s="9">
         <v>46233</v>
       </c>
-      <c r="CE22" s="8">
+      <c r="CE22" s="9">
         <v>21520</v>
       </c>
-      <c r="CF22" s="8">
+      <c r="CF22" s="9">
         <v>24713</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -1485,32 +1511,26 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="BY23" s="1">
+      <c r="BY23" s="18">
         <v>32352</v>
       </c>
-      <c r="BZ23" s="1">
+      <c r="BZ23" s="18">
         <v>15915</v>
       </c>
-      <c r="CA23" s="1">
+      <c r="CA23" s="18">
         <v>16437</v>
       </c>
-      <c r="CB23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD23" s="8">
+      <c r="CD23" s="9">
         <v>49627</v>
       </c>
-      <c r="CE23" s="8">
+      <c r="CE23" s="9">
         <v>23120</v>
       </c>
-      <c r="CF23" s="8">
+      <c r="CF23" s="9">
         <v>26507</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -1532,32 +1552,26 @@
       <c r="N24" s="2">
         <v>5876</v>
       </c>
-      <c r="BY24" s="1">
+      <c r="BY24" s="18">
         <v>37490</v>
       </c>
-      <c r="BZ24" s="1">
+      <c r="BZ24" s="18">
         <v>18494</v>
       </c>
-      <c r="CA24" s="1">
+      <c r="CA24" s="18">
         <v>18996</v>
       </c>
-      <c r="CB24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD24" s="8">
+      <c r="CD24" s="9">
         <v>54684</v>
       </c>
-      <c r="CE24" s="8">
+      <c r="CE24" s="9">
         <v>25485</v>
       </c>
-      <c r="CF24" s="8">
+      <c r="CF24" s="9">
         <v>29199</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -1579,32 +1593,26 @@
       <c r="N25" s="2">
         <v>6343</v>
       </c>
-      <c r="BY25" s="1">
+      <c r="BY25" s="18">
         <v>40693</v>
       </c>
-      <c r="BZ25" s="1">
+      <c r="BZ25" s="18">
         <v>20319</v>
       </c>
-      <c r="CA25" s="1">
+      <c r="CA25" s="18">
         <v>20374</v>
       </c>
-      <c r="CB25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD25" s="8">
+      <c r="CD25" s="9">
         <v>57479</v>
       </c>
-      <c r="CE25" s="8">
+      <c r="CE25" s="9">
         <v>26634</v>
       </c>
-      <c r="CF25" s="8">
+      <c r="CF25" s="9">
         <v>30845</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -1628,32 +1636,26 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="BY26" s="1">
+      <c r="BY26" s="18">
         <v>43061</v>
       </c>
-      <c r="BZ26" s="1">
+      <c r="BZ26" s="18">
         <v>21534</v>
       </c>
-      <c r="CA26" s="1">
+      <c r="CA26" s="18">
         <v>21527</v>
       </c>
-      <c r="CB26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD26" s="10">
+      <c r="CD26" s="11">
         <v>61646</v>
       </c>
-      <c r="CE26" s="10">
+      <c r="CE26" s="11">
         <v>28830</v>
       </c>
-      <c r="CF26" s="10">
+      <c r="CF26" s="11">
         <v>32816</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -1677,32 +1679,26 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="BY27" s="1">
+      <c r="BY27" s="18">
         <v>44837</v>
       </c>
-      <c r="BZ27" s="1">
+      <c r="BZ27" s="18">
         <v>22422</v>
       </c>
-      <c r="CA27" s="1">
+      <c r="CA27" s="18">
         <v>22415</v>
       </c>
-      <c r="CB27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD27" s="10">
+      <c r="CD27" s="11">
         <v>65742</v>
       </c>
-      <c r="CE27" s="10">
+      <c r="CE27" s="11">
         <v>30950</v>
       </c>
-      <c r="CF27" s="10">
+      <c r="CF27" s="11">
         <v>34792</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -1728,32 +1724,26 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="BY28" s="1">
+      <c r="BY28" s="18">
         <v>45645</v>
       </c>
-      <c r="BZ28" s="1">
+      <c r="BZ28" s="18">
         <v>23132</v>
       </c>
-      <c r="CA28" s="1">
+      <c r="CA28" s="18">
         <v>22513</v>
       </c>
-      <c r="CB28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD28" s="10">
+      <c r="CD28" s="11">
         <v>67513</v>
       </c>
-      <c r="CE28" s="10">
+      <c r="CE28" s="11">
         <v>31913</v>
       </c>
-      <c r="CF28" s="10">
+      <c r="CF28" s="11">
         <v>35600</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -1779,32 +1769,26 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="BY29" s="1">
+      <c r="BY29" s="18">
         <v>45882</v>
       </c>
-      <c r="BZ29" s="1">
+      <c r="BZ29" s="18">
         <v>23666</v>
       </c>
-      <c r="CA29" s="1">
+      <c r="CA29" s="18">
         <v>22216</v>
       </c>
-      <c r="CB29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD29" s="10">
+      <c r="CD29" s="11">
         <v>69170</v>
       </c>
-      <c r="CE29" s="10">
+      <c r="CE29" s="11">
         <v>33132</v>
       </c>
-      <c r="CF29" s="10">
+      <c r="CF29" s="11">
         <v>36038</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -1830,32 +1814,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="BY30" s="2">
+      <c r="BY30" s="9">
         <v>41602</v>
       </c>
-      <c r="BZ30" s="2">
+      <c r="BZ30" s="9">
         <v>21551</v>
       </c>
-      <c r="CA30" s="2">
+      <c r="CA30" s="9">
         <v>20051</v>
       </c>
-      <c r="CB30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD30" s="10">
+      <c r="CD30" s="11">
         <v>70307</v>
       </c>
-      <c r="CE30" s="10">
+      <c r="CE30" s="11">
         <v>33882</v>
       </c>
-      <c r="CF30" s="10">
+      <c r="CF30" s="11">
         <v>36425</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -1881,77 +1859,59 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="BJ31" s="1">
+      <c r="BJ31" s="18">
         <v>40641</v>
       </c>
-      <c r="BK31" s="1">
+      <c r="BK31" s="18">
         <v>21537</v>
       </c>
-      <c r="BL31" s="1">
+      <c r="BL31" s="18">
         <v>19104</v>
       </c>
-      <c r="BM31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO31" s="1">
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18">
         <v>16650</v>
       </c>
-      <c r="BP31" s="1">
+      <c r="BP31" s="18">
         <v>10135</v>
       </c>
-      <c r="BQ31" s="1">
+      <c r="BQ31" s="18">
         <v>6515</v>
       </c>
-      <c r="BR31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT31" s="2">
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="9">
         <v>772</v>
       </c>
-      <c r="BU31" s="2">
+      <c r="BU31" s="9">
         <v>512</v>
       </c>
-      <c r="BV31" s="2">
+      <c r="BV31" s="9">
         <v>260</v>
       </c>
-      <c r="BW31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY31" s="1">
+      <c r="BW31" s="18"/>
+      <c r="BX31" s="18"/>
+      <c r="BY31" s="18">
         <v>12241</v>
       </c>
-      <c r="BZ31" s="1">
+      <c r="BZ31" s="18">
         <v>6775</v>
       </c>
-      <c r="CA31" s="1">
+      <c r="CA31" s="18">
         <v>5466</v>
       </c>
-      <c r="CB31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD31" s="8">
+      <c r="CD31" s="9">
         <v>44257</v>
       </c>
-      <c r="CE31" s="8">
+      <c r="CE31" s="9">
         <v>21922</v>
       </c>
-      <c r="CF31" s="8">
+      <c r="CF31" s="9">
         <v>22335</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -1988,77 +1948,59 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="BJ32" s="1">
+      <c r="BJ32" s="18">
         <v>53111</v>
       </c>
-      <c r="BK32" s="1">
+      <c r="BK32" s="18">
         <v>28377</v>
       </c>
-      <c r="BL32" s="1">
+      <c r="BL32" s="18">
         <v>24734</v>
       </c>
-      <c r="BM32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO32" s="1">
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18">
         <v>10895</v>
       </c>
-      <c r="BP32" s="1">
+      <c r="BP32" s="18">
         <v>6389</v>
       </c>
-      <c r="BQ32" s="1">
+      <c r="BQ32" s="18">
         <v>4506</v>
       </c>
-      <c r="BR32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT32" s="1">
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18">
         <v>1072</v>
       </c>
-      <c r="BU32" s="1">
+      <c r="BU32" s="18">
         <v>675</v>
       </c>
-      <c r="BV32" s="1">
+      <c r="BV32" s="18">
         <v>397</v>
       </c>
-      <c r="BW32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY32" s="1">
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18">
         <v>1394</v>
       </c>
-      <c r="BZ32" s="1">
+      <c r="BZ32" s="18">
         <v>708</v>
       </c>
-      <c r="CA32" s="1">
+      <c r="CA32" s="18">
         <v>686</v>
       </c>
-      <c r="CB32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD32" s="8">
+      <c r="CD32" s="9">
         <v>7854</v>
       </c>
-      <c r="CE32" s="8">
+      <c r="CE32" s="9">
         <v>3850</v>
       </c>
-      <c r="CF32" s="8">
+      <c r="CF32" s="9">
         <v>4004</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -2085,68 +2027,41 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="BJ33" s="1">
+      <c r="BJ33" s="18">
         <v>53219</v>
       </c>
-      <c r="BK33" s="1">
+      <c r="BK33" s="18">
         <v>28499</v>
       </c>
-      <c r="BL33" s="1">
+      <c r="BL33" s="18">
         <v>24720</v>
       </c>
-      <c r="BM33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO33" s="1">
+      <c r="BM33" s="18"/>
+      <c r="BN33" s="18"/>
+      <c r="BO33" s="18">
         <v>11223</v>
       </c>
-      <c r="BP33" s="1">
+      <c r="BP33" s="18">
         <v>6529</v>
       </c>
-      <c r="BQ33" s="1">
+      <c r="BQ33" s="18">
         <v>4694</v>
       </c>
-      <c r="BR33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT33" s="1">
+      <c r="BR33" s="18"/>
+      <c r="BS33" s="18"/>
+      <c r="BT33" s="18">
         <v>1297</v>
       </c>
-      <c r="BU33" s="1">
+      <c r="BU33" s="18">
         <v>832</v>
       </c>
-      <c r="BV33" s="1">
+      <c r="BV33" s="18">
         <v>465</v>
       </c>
-      <c r="BW33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW33" s="18"/>
+      <c r="BX33" s="18"/>
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -2172,68 +2087,41 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="BJ34" s="1">
+      <c r="BJ34" s="18">
         <v>51970</v>
       </c>
-      <c r="BK34" s="1">
+      <c r="BK34" s="18">
         <v>27567</v>
       </c>
-      <c r="BL34" s="1">
+      <c r="BL34" s="18">
         <v>24403</v>
       </c>
-      <c r="BM34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO34" s="1">
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="18"/>
+      <c r="BO34" s="18">
         <v>10465</v>
       </c>
-      <c r="BP34" s="1">
+      <c r="BP34" s="18">
         <v>6081</v>
       </c>
-      <c r="BQ34" s="1">
+      <c r="BQ34" s="18">
         <v>4384</v>
       </c>
-      <c r="BR34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT34" s="1">
+      <c r="BR34" s="18"/>
+      <c r="BS34" s="18"/>
+      <c r="BT34" s="18">
         <v>1122</v>
       </c>
-      <c r="BU34" s="1">
+      <c r="BU34" s="18">
         <v>703</v>
       </c>
-      <c r="BV34" s="1">
+      <c r="BV34" s="18">
         <v>419</v>
       </c>
-      <c r="BW34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW34" s="18"/>
+      <c r="BX34" s="18"/>
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -2257,68 +2145,41 @@
       <c r="N35" s="2">
         <v>8198</v>
       </c>
-      <c r="BJ35" s="1">
+      <c r="BJ35" s="18">
         <v>46774</v>
       </c>
-      <c r="BK35" s="1">
+      <c r="BK35" s="18">
         <v>24763</v>
       </c>
-      <c r="BL35" s="1">
+      <c r="BL35" s="18">
         <v>22011</v>
       </c>
-      <c r="BM35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO35" s="1">
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18">
         <v>10795</v>
       </c>
-      <c r="BP35" s="1">
+      <c r="BP35" s="18">
         <v>6354</v>
       </c>
-      <c r="BQ35" s="1">
+      <c r="BQ35" s="18">
         <v>4441</v>
       </c>
-      <c r="BR35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT35" s="1">
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18">
         <v>1213</v>
       </c>
-      <c r="BU35" s="1">
+      <c r="BU35" s="18">
         <v>783</v>
       </c>
-      <c r="BV35" s="1">
+      <c r="BV35" s="18">
         <v>430</v>
       </c>
-      <c r="BW35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="18"/>
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -2352,68 +2213,53 @@
       <c r="P36" s="2">
         <v>0</v>
       </c>
-      <c r="BJ36" s="1">
+      <c r="BJ36" s="18">
         <v>46544</v>
       </c>
-      <c r="BK36" s="1">
+      <c r="BK36" s="18">
         <v>25029</v>
       </c>
-      <c r="BL36" s="1">
+      <c r="BL36" s="18">
         <v>21512</v>
       </c>
-      <c r="BM36" s="1">
+      <c r="BM36" s="18">
         <v>3</v>
       </c>
-      <c r="BN36" s="1" t="s">
+      <c r="BN36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BO36" s="1">
+      <c r="BO36" s="18">
         <v>11380</v>
       </c>
-      <c r="BP36" s="1">
+      <c r="BP36" s="18">
         <v>6734</v>
       </c>
-      <c r="BQ36" s="1">
+      <c r="BQ36" s="18">
         <v>4645</v>
       </c>
-      <c r="BR36" s="1">
+      <c r="BR36" s="18">
         <v>1</v>
       </c>
-      <c r="BS36" s="1" t="s">
+      <c r="BS36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BT36" s="1">
+      <c r="BT36" s="18">
         <v>1202</v>
       </c>
-      <c r="BU36" s="1">
+      <c r="BU36" s="18">
         <v>802</v>
       </c>
-      <c r="BV36" s="1">
+      <c r="BV36" s="18">
         <v>400</v>
       </c>
-      <c r="BW36" s="1" t="s">
+      <c r="BW36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BX36" s="1" t="s">
+      <c r="BX36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BY36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -2427,19 +2273,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C7D5AC-F3D9-5743-990E-C41FCF1FA374}">
   <dimension ref="A1:CH37"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BY36" sqref="BY36"/>
+      <selection pane="bottomRight" activeCell="BJ25" sqref="BJ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2669,38 +2515,38 @@
         <v>77</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CH1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
@@ -2723,7 +2569,7 @@
         <v>15486</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
@@ -2746,7 +2592,7 @@
         <v>19604</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
@@ -2760,7 +2606,7 @@
         <v>91167</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
@@ -2774,7 +2620,7 @@
         <v>89578</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
@@ -2788,7 +2634,7 @@
         <v>84037</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
@@ -2802,7 +2648,7 @@
         <v>85034</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
@@ -2816,7 +2662,7 @@
         <v>85765</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
@@ -2830,7 +2676,7 @@
         <v>86130</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
@@ -2844,7 +2690,7 @@
         <v>87403</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
@@ -2858,7 +2704,7 @@
         <v>87154</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
@@ -2872,7 +2718,7 @@
         <v>88784</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
@@ -2886,7 +2732,7 @@
         <v>88920</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
@@ -2900,7 +2746,7 @@
         <v>89517</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
@@ -2914,7 +2760,7 @@
         <v>87270</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
@@ -2954,32 +2800,26 @@
       <c r="AC17" s="5">
         <v>6885</v>
       </c>
-      <c r="BY17" s="1">
+      <c r="BY17" s="18">
         <v>8096</v>
       </c>
-      <c r="BZ17" s="1">
+      <c r="BZ17" s="18">
         <v>3706</v>
       </c>
-      <c r="CA17" s="1">
+      <c r="CA17" s="18">
         <v>4390</v>
       </c>
-      <c r="CB17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD17" s="8">
+      <c r="CD17" s="9">
         <v>34590</v>
       </c>
-      <c r="CE17" s="8">
+      <c r="CE17" s="9">
         <v>17126</v>
       </c>
-      <c r="CF17" s="8">
+      <c r="CF17" s="9">
         <v>17464</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -3032,32 +2872,26 @@
       <c r="AC18" s="6">
         <v>4220</v>
       </c>
-      <c r="BY18" s="1">
+      <c r="BY18" s="18">
         <v>15981</v>
       </c>
-      <c r="BZ18" s="1">
+      <c r="BZ18" s="18">
         <v>7534</v>
       </c>
-      <c r="CA18" s="1">
+      <c r="CA18" s="18">
         <v>8447</v>
       </c>
-      <c r="CB18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD18" s="8">
+      <c r="CD18" s="9">
         <v>59093</v>
       </c>
-      <c r="CE18" s="8">
+      <c r="CE18" s="9">
         <v>29154</v>
       </c>
-      <c r="CF18" s="8">
+      <c r="CF18" s="9">
         <v>29939</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -3102,38 +2936,32 @@
       <c r="AA19" s="7">
         <v>423</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="10">
         <v>131</v>
       </c>
       <c r="AC19" s="7">
         <v>292</v>
       </c>
-      <c r="BY19" s="1">
+      <c r="BY19" s="18">
         <v>20352</v>
       </c>
-      <c r="BZ19" s="1">
+      <c r="BZ19" s="18">
         <v>9826</v>
       </c>
-      <c r="CA19" s="1">
+      <c r="CA19" s="18">
         <v>10526</v>
       </c>
-      <c r="CB19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD19" s="8">
+      <c r="CD19" s="9">
         <v>67509</v>
       </c>
-      <c r="CE19" s="8">
+      <c r="CE19" s="9">
         <v>33626</v>
       </c>
-      <c r="CF19" s="8">
+      <c r="CF19" s="9">
         <v>33883</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -3157,32 +2985,26 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="BY20" s="1">
+      <c r="BY20" s="18">
         <v>24613</v>
       </c>
-      <c r="BZ20" s="1">
+      <c r="BZ20" s="18">
         <v>12157</v>
       </c>
-      <c r="CA20" s="1">
+      <c r="CA20" s="18">
         <v>12456</v>
       </c>
-      <c r="CB20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD20" s="8">
+      <c r="CD20" s="9">
         <v>72327</v>
       </c>
-      <c r="CE20" s="8">
+      <c r="CE20" s="9">
         <v>36084</v>
       </c>
-      <c r="CF20" s="8">
+      <c r="CF20" s="9">
         <v>36243</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -3204,32 +3026,26 @@
       <c r="N21" s="2">
         <v>9145</v>
       </c>
-      <c r="BY21" s="1">
+      <c r="BY21" s="18">
         <v>31231</v>
       </c>
-      <c r="BZ21" s="1">
+      <c r="BZ21" s="18">
         <v>15168</v>
       </c>
-      <c r="CA21" s="1">
+      <c r="CA21" s="18">
         <v>16063</v>
       </c>
-      <c r="CB21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD21" s="8">
+      <c r="CD21" s="9">
         <v>80283</v>
       </c>
-      <c r="CE21" s="8">
+      <c r="CE21" s="9">
         <v>38642</v>
       </c>
-      <c r="CF21" s="8">
+      <c r="CF21" s="9">
         <v>41641</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -3253,32 +3069,26 @@
       <c r="N22" s="2">
         <v>8998</v>
       </c>
-      <c r="BY22" s="1">
+      <c r="BY22" s="18">
         <v>36653</v>
       </c>
-      <c r="BZ22" s="1">
+      <c r="BZ22" s="18">
         <v>17678</v>
       </c>
-      <c r="CA22" s="1">
+      <c r="CA22" s="18">
         <v>18975</v>
       </c>
-      <c r="CB22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD22" s="8">
+      <c r="CD22" s="9">
         <v>87100</v>
       </c>
-      <c r="CE22" s="8">
+      <c r="CE22" s="9">
         <v>40964</v>
       </c>
-      <c r="CF22" s="8">
+      <c r="CF22" s="9">
         <v>46136</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -3304,32 +3114,26 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="BY23" s="1">
+      <c r="BY23" s="18">
         <v>45174</v>
       </c>
-      <c r="BZ23" s="1">
+      <c r="BZ23" s="18">
         <v>22323</v>
       </c>
-      <c r="CA23" s="1">
+      <c r="CA23" s="18">
         <v>22851</v>
       </c>
-      <c r="CB23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD23" s="8">
+      <c r="CD23" s="9">
         <v>94686</v>
       </c>
-      <c r="CE23" s="8">
+      <c r="CE23" s="9">
         <v>44752</v>
       </c>
-      <c r="CF23" s="8">
+      <c r="CF23" s="9">
         <v>49934</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -3351,32 +3155,26 @@
       <c r="N24" s="2">
         <v>9319</v>
       </c>
-      <c r="BY24" s="1">
+      <c r="BY24" s="18">
         <v>53840</v>
       </c>
-      <c r="BZ24" s="1">
+      <c r="BZ24" s="18">
         <v>26455</v>
       </c>
-      <c r="CA24" s="1">
+      <c r="CA24" s="18">
         <v>27385</v>
       </c>
-      <c r="CB24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD24" s="8">
+      <c r="CD24" s="9">
         <v>107340</v>
       </c>
-      <c r="CE24" s="8">
+      <c r="CE24" s="9">
         <v>50692</v>
       </c>
-      <c r="CF24" s="8">
+      <c r="CF24" s="9">
         <v>56648</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -3398,32 +3196,26 @@
       <c r="N25" s="2">
         <v>10107</v>
       </c>
-      <c r="BY25" s="1">
+      <c r="BY25" s="18">
         <v>60267</v>
       </c>
-      <c r="BZ25" s="1">
+      <c r="BZ25" s="18">
         <v>29769</v>
       </c>
-      <c r="CA25" s="1">
+      <c r="CA25" s="18">
         <v>30498</v>
       </c>
-      <c r="CB25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD25" s="8">
+      <c r="CD25" s="9">
         <v>113388</v>
       </c>
-      <c r="CE25" s="8">
+      <c r="CE25" s="9">
         <v>53283</v>
       </c>
-      <c r="CF25" s="8">
+      <c r="CF25" s="9">
         <v>60105</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -3447,32 +3239,26 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="BY26" s="1">
+      <c r="BY26" s="18">
         <v>65735</v>
       </c>
-      <c r="BZ26" s="1">
+      <c r="BZ26" s="18">
         <v>32752</v>
       </c>
-      <c r="CA26" s="1">
+      <c r="CA26" s="18">
         <v>32983</v>
       </c>
-      <c r="CB26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD26" s="10">
+      <c r="CD26" s="11">
         <v>122463</v>
       </c>
-      <c r="CE26" s="10">
+      <c r="CE26" s="11">
         <v>58093</v>
       </c>
-      <c r="CF26" s="10">
+      <c r="CF26" s="11">
         <v>64370</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -3496,32 +3282,26 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="BY27" s="1">
+      <c r="BY27" s="18">
         <v>69834</v>
       </c>
-      <c r="BZ27" s="1">
+      <c r="BZ27" s="18">
         <v>34870</v>
       </c>
-      <c r="CA27" s="1">
+      <c r="CA27" s="18">
         <v>34964</v>
       </c>
-      <c r="CB27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD27" s="10">
+      <c r="CD27" s="11">
         <v>130497</v>
       </c>
-      <c r="CE27" s="10">
+      <c r="CE27" s="11">
         <v>62476</v>
       </c>
-      <c r="CF27" s="10">
+      <c r="CF27" s="11">
         <v>68021</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -3547,32 +3327,26 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="BY28" s="1">
+      <c r="BY28" s="18">
         <v>72324</v>
       </c>
-      <c r="BZ28" s="1">
+      <c r="BZ28" s="18">
         <v>36585</v>
       </c>
-      <c r="CA28" s="1">
+      <c r="CA28" s="18">
         <v>35739</v>
       </c>
-      <c r="CB28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD28" s="10">
+      <c r="CD28" s="11">
         <v>134573</v>
       </c>
-      <c r="CE28" s="10">
+      <c r="CE28" s="11">
         <v>64831</v>
       </c>
-      <c r="CF28" s="10">
+      <c r="CF28" s="11">
         <v>69742</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -3598,32 +3372,26 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="BY29" s="1">
+      <c r="BY29" s="18">
         <v>74383</v>
       </c>
-      <c r="BZ29" s="1">
+      <c r="BZ29" s="18">
         <v>38157</v>
       </c>
-      <c r="CA29" s="1">
+      <c r="CA29" s="18">
         <v>36226</v>
       </c>
-      <c r="CB29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD29" s="10">
+      <c r="CD29" s="11">
         <v>140145</v>
       </c>
-      <c r="CE29" s="10">
+      <c r="CE29" s="11">
         <v>68168</v>
       </c>
-      <c r="CF29" s="10">
+      <c r="CF29" s="11">
         <v>71977</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -3649,32 +3417,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="BY30" s="2">
+      <c r="BY30" s="9">
         <v>69605</v>
       </c>
-      <c r="BZ30" s="2">
+      <c r="BZ30" s="9">
         <v>35899</v>
       </c>
-      <c r="CA30" s="2">
+      <c r="CA30" s="9">
         <v>33706</v>
       </c>
-      <c r="CB30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD30" s="10">
+      <c r="CD30" s="11">
         <v>144382</v>
       </c>
-      <c r="CE30" s="10">
+      <c r="CE30" s="11">
         <v>70523</v>
       </c>
-      <c r="CF30" s="10">
+      <c r="CF30" s="11">
         <v>73859</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -3700,77 +3462,59 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="BJ31" s="1">
+      <c r="BJ31" s="18">
         <v>131711</v>
       </c>
-      <c r="BK31" s="1">
+      <c r="BK31" s="18">
         <v>72910</v>
       </c>
-      <c r="BL31" s="1">
+      <c r="BL31" s="18">
         <v>58801</v>
       </c>
-      <c r="BM31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO31" s="1">
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18">
         <v>10240</v>
       </c>
-      <c r="BP31" s="1">
+      <c r="BP31" s="18">
         <v>6035</v>
       </c>
-      <c r="BQ31" s="1">
+      <c r="BQ31" s="18">
         <v>4205</v>
       </c>
-      <c r="BR31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT31" s="2">
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="9">
         <v>1154</v>
       </c>
-      <c r="BU31" s="2">
+      <c r="BU31" s="9">
         <v>766</v>
       </c>
-      <c r="BV31" s="2">
+      <c r="BV31" s="9">
         <v>388</v>
       </c>
-      <c r="BW31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY31" s="1">
+      <c r="BW31" s="18"/>
+      <c r="BX31" s="18"/>
+      <c r="BY31" s="18">
         <v>18679</v>
       </c>
-      <c r="BZ31" s="1">
+      <c r="BZ31" s="18">
         <v>10584</v>
       </c>
-      <c r="CA31" s="1">
+      <c r="CA31" s="18">
         <v>8095</v>
       </c>
-      <c r="CB31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD31" s="8">
+      <c r="CD31" s="9">
         <v>97124</v>
       </c>
-      <c r="CE31" s="8">
+      <c r="CE31" s="9">
         <v>49667</v>
       </c>
-      <c r="CF31" s="8">
+      <c r="CF31" s="9">
         <v>47457</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -3807,77 +3551,59 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="BJ32" s="1">
+      <c r="BJ32" s="18">
         <v>140151</v>
       </c>
-      <c r="BK32" s="1">
+      <c r="BK32" s="18">
         <v>78441</v>
       </c>
-      <c r="BL32" s="1">
+      <c r="BL32" s="18">
         <v>61710</v>
       </c>
-      <c r="BM32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO32" s="1">
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18">
         <v>17525</v>
       </c>
-      <c r="BP32" s="1">
+      <c r="BP32" s="18">
         <v>10455</v>
       </c>
-      <c r="BQ32" s="1">
+      <c r="BQ32" s="18">
         <v>7070</v>
       </c>
-      <c r="BR32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT32" s="1">
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18">
         <v>1933</v>
       </c>
-      <c r="BU32" s="1">
+      <c r="BU32" s="18">
         <v>1212</v>
       </c>
-      <c r="BV32" s="1">
+      <c r="BV32" s="18">
         <v>721</v>
       </c>
-      <c r="BW32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY32" s="1">
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18">
         <v>1553</v>
       </c>
-      <c r="BZ32" s="1">
+      <c r="BZ32" s="18">
         <v>792</v>
       </c>
-      <c r="CA32" s="1">
+      <c r="CA32" s="18">
         <v>761</v>
       </c>
-      <c r="CB32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD32" s="8">
+      <c r="CD32" s="9">
         <v>10682</v>
       </c>
-      <c r="CE32" s="8">
+      <c r="CE32" s="9">
         <v>5227</v>
       </c>
-      <c r="CF32" s="8">
+      <c r="CF32" s="9">
         <v>5455</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -3904,68 +3630,41 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="BJ33" s="1">
+      <c r="BJ33" s="18">
         <v>131747</v>
       </c>
-      <c r="BK33" s="1">
+      <c r="BK33" s="18">
         <v>73643</v>
       </c>
-      <c r="BL33" s="1">
+      <c r="BL33" s="18">
         <v>58104</v>
       </c>
-      <c r="BM33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO33" s="1">
+      <c r="BM33" s="18"/>
+      <c r="BN33" s="18"/>
+      <c r="BO33" s="18">
         <v>18596</v>
       </c>
-      <c r="BP33" s="1">
+      <c r="BP33" s="18">
         <v>11292</v>
       </c>
-      <c r="BQ33" s="1">
+      <c r="BQ33" s="18">
         <v>7304</v>
       </c>
-      <c r="BR33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT33" s="1">
+      <c r="BR33" s="18"/>
+      <c r="BS33" s="18"/>
+      <c r="BT33" s="18">
         <v>2465</v>
       </c>
-      <c r="BU33" s="1">
+      <c r="BU33" s="18">
         <v>1581</v>
       </c>
-      <c r="BV33" s="1">
+      <c r="BV33" s="18">
         <v>884</v>
       </c>
-      <c r="BW33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW33" s="18"/>
+      <c r="BX33" s="18"/>
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -3991,68 +3690,41 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="BJ34" s="1">
+      <c r="BJ34" s="18">
         <v>125649</v>
       </c>
-      <c r="BK34" s="1">
+      <c r="BK34" s="18">
         <v>70188</v>
       </c>
-      <c r="BL34" s="1">
+      <c r="BL34" s="18">
         <v>55461</v>
       </c>
-      <c r="BM34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO34" s="1">
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="18"/>
+      <c r="BO34" s="18">
         <v>17282</v>
       </c>
-      <c r="BP34" s="1">
+      <c r="BP34" s="18">
         <v>10360</v>
       </c>
-      <c r="BQ34" s="1">
+      <c r="BQ34" s="18">
         <v>6922</v>
       </c>
-      <c r="BR34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT34" s="1">
+      <c r="BR34" s="18"/>
+      <c r="BS34" s="18"/>
+      <c r="BT34" s="18">
         <v>1915</v>
       </c>
-      <c r="BU34" s="1">
+      <c r="BU34" s="18">
         <v>1190</v>
       </c>
-      <c r="BV34" s="1">
+      <c r="BV34" s="18">
         <v>725</v>
       </c>
-      <c r="BW34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW34" s="18"/>
+      <c r="BX34" s="18"/>
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -4076,68 +3748,41 @@
       <c r="N35" s="2">
         <v>13445</v>
       </c>
-      <c r="BJ35" s="1">
+      <c r="BJ35" s="18">
         <v>109644</v>
       </c>
-      <c r="BK35" s="1">
+      <c r="BK35" s="18">
         <v>61471</v>
       </c>
-      <c r="BL35" s="1">
+      <c r="BL35" s="18">
         <v>48173</v>
       </c>
-      <c r="BM35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO35" s="1">
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18">
         <v>17905</v>
       </c>
-      <c r="BP35" s="1">
+      <c r="BP35" s="18">
         <v>10845</v>
       </c>
-      <c r="BQ35" s="1">
+      <c r="BQ35" s="18">
         <v>7060</v>
       </c>
-      <c r="BR35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT35" s="1">
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18">
         <v>2105</v>
       </c>
-      <c r="BU35" s="1">
+      <c r="BU35" s="18">
         <v>1348</v>
       </c>
-      <c r="BV35" s="1">
+      <c r="BV35" s="18">
         <v>757</v>
       </c>
-      <c r="BW35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="18"/>
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -4171,70 +3816,109 @@
       <c r="P36" s="2">
         <v>0</v>
       </c>
-      <c r="BJ36" s="1">
+      <c r="BJ36" s="18">
         <v>107999</v>
       </c>
-      <c r="BK36" s="1">
+      <c r="BK36" s="18">
         <v>61212</v>
       </c>
-      <c r="BL36" s="1">
+      <c r="BL36" s="18">
         <v>46783</v>
       </c>
-      <c r="BM36" s="1">
+      <c r="BM36" s="18">
         <v>4</v>
       </c>
-      <c r="BN36" s="1" t="s">
+      <c r="BN36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BO36" s="1">
+      <c r="BO36" s="18">
         <v>19285</v>
       </c>
-      <c r="BP36" s="1">
+      <c r="BP36" s="18">
         <v>11804</v>
       </c>
-      <c r="BQ36" s="1">
+      <c r="BQ36" s="18">
         <v>7480</v>
       </c>
-      <c r="BR36" s="1">
+      <c r="BR36" s="18">
         <v>1</v>
       </c>
-      <c r="BS36" s="1" t="s">
+      <c r="BS36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BT36" s="1">
+      <c r="BT36" s="18">
         <v>2044</v>
       </c>
-      <c r="BU36" s="1">
+      <c r="BU36" s="18">
         <v>1359</v>
       </c>
-      <c r="BV36" s="1">
+      <c r="BV36" s="18">
         <v>685</v>
       </c>
-      <c r="BW36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="BW36" s="18">
+        <v>0</v>
+      </c>
+      <c r="BX36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2020</v>
+      </c>
+      <c r="B37" s="1">
+        <v>185844</v>
+      </c>
+      <c r="C37" s="1">
+        <v>82380</v>
+      </c>
+      <c r="D37" s="1">
+        <v>103828</v>
+      </c>
+      <c r="L37" s="1">
+        <v>23570</v>
+      </c>
+      <c r="M37" s="1">
+        <v>10361</v>
+      </c>
+      <c r="N37" s="1">
+        <v>13209</v>
+      </c>
+      <c r="BE37" s="1">
+        <v>300344</v>
+      </c>
+      <c r="BF37" s="1">
+        <v>146914</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>153708</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>103625</v>
+      </c>
+      <c r="BK37" s="1">
+        <v>58155</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>45433</v>
+      </c>
+      <c r="BO37" s="1">
+        <v>21802</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>12891</v>
+      </c>
+      <c r="BQ37" s="1">
+        <v>8899</v>
+      </c>
+      <c r="BT37" s="1">
+        <v>2015</v>
+      </c>
+      <c r="BU37" s="1">
+        <v>1333</v>
+      </c>
+      <c r="BV37" s="1">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -4246,19 +3930,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F295FD20-97E2-214F-8962-636EF856FC90}">
   <dimension ref="A1:CH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BU20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BY36" sqref="BY36"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -4488,38 +4172,38 @@
         <v>77</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CH1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:86" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
@@ -4542,7 +4226,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
@@ -4565,7 +4249,7 @@
         <v>13786</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
@@ -4579,7 +4263,7 @@
         <v>61514</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
@@ -4593,7 +4277,7 @@
         <v>61786</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
@@ -4607,7 +4291,7 @@
         <v>57072</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
@@ -4621,7 +4305,7 @@
         <v>59021</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
@@ -4635,7 +4319,7 @@
         <v>59526</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1993</v>
       </c>
@@ -4649,7 +4333,7 @@
         <v>59987</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1994</v>
       </c>
@@ -4663,7 +4347,7 @@
         <v>61343</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1995</v>
       </c>
@@ -4677,7 +4361,7 @@
         <v>62429</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1996</v>
       </c>
@@ -4691,7 +4375,7 @@
         <v>63041</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1997</v>
       </c>
@@ -4705,7 +4389,7 @@
         <v>65364</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
@@ -4719,7 +4403,7 @@
         <v>64854</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1999</v>
       </c>
@@ -4733,7 +4417,7 @@
         <v>64044</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
@@ -4773,32 +4457,26 @@
       <c r="AC17" s="5">
         <v>5735</v>
       </c>
-      <c r="BY17" s="1">
+      <c r="BY17" s="16">
         <v>5804</v>
       </c>
-      <c r="BZ17" s="1">
+      <c r="BZ17" s="16">
         <v>2535</v>
       </c>
-      <c r="CA17" s="1">
+      <c r="CA17" s="16">
         <v>3269</v>
       </c>
-      <c r="CB17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD17" s="8">
+      <c r="CD17" s="9">
         <v>23314</v>
       </c>
-      <c r="CE17" s="8">
+      <c r="CE17" s="9">
         <v>10943</v>
       </c>
-      <c r="CF17" s="8">
+      <c r="CF17" s="9">
         <v>12371</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -4851,32 +4529,26 @@
       <c r="AC18" s="6">
         <v>3507</v>
       </c>
-      <c r="BY18" s="1">
+      <c r="BY18" s="16">
         <v>10444</v>
       </c>
-      <c r="BZ18" s="1">
+      <c r="BZ18" s="16">
         <v>4706</v>
       </c>
-      <c r="CA18" s="1">
+      <c r="CA18" s="16">
         <v>5738</v>
       </c>
-      <c r="CB18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD18" s="8">
+      <c r="CD18" s="9">
         <v>41395</v>
       </c>
-      <c r="CE18" s="8">
+      <c r="CE18" s="9">
         <v>19644</v>
       </c>
-      <c r="CF18" s="8">
+      <c r="CF18" s="9">
         <v>21751</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -4921,38 +4593,32 @@
       <c r="AA19" s="7">
         <v>393</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="10">
         <v>123</v>
       </c>
       <c r="AC19" s="7">
         <v>270</v>
       </c>
-      <c r="BY19" s="1">
+      <c r="BY19" s="16">
         <v>13280</v>
       </c>
-      <c r="BZ19" s="1">
+      <c r="BZ19" s="16">
         <v>6215</v>
       </c>
-      <c r="CA19" s="1">
+      <c r="CA19" s="16">
         <v>7065</v>
       </c>
-      <c r="CB19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD19" s="8">
+      <c r="CD19" s="9">
         <v>48258</v>
       </c>
-      <c r="CE19" s="8">
+      <c r="CE19" s="9">
         <v>23459</v>
       </c>
-      <c r="CF19" s="8">
+      <c r="CF19" s="9">
         <v>24799</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
@@ -4976,32 +4642,26 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="BY20" s="1">
+      <c r="BY20" s="16">
         <v>16336</v>
       </c>
-      <c r="BZ20" s="1">
+      <c r="BZ20" s="16">
         <v>7655</v>
       </c>
-      <c r="CA20" s="1">
+      <c r="CA20" s="16">
         <v>8681</v>
       </c>
-      <c r="CB20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD20" s="8">
+      <c r="CD20" s="9">
         <v>51842</v>
       </c>
-      <c r="CE20" s="8">
+      <c r="CE20" s="9">
         <v>25257</v>
       </c>
-      <c r="CF20" s="8">
+      <c r="CF20" s="9">
         <v>26585</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
@@ -5023,32 +4683,26 @@
       <c r="N21" s="2">
         <v>7148</v>
       </c>
-      <c r="BY21" s="1">
+      <c r="BY21" s="16">
         <v>20529</v>
       </c>
-      <c r="BZ21" s="1">
+      <c r="BZ21" s="16">
         <v>9376</v>
       </c>
-      <c r="CA21" s="1">
+      <c r="CA21" s="16">
         <v>11153</v>
       </c>
-      <c r="CB21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD21" s="8">
+      <c r="CD21" s="9">
         <v>59587</v>
       </c>
-      <c r="CE21" s="8">
+      <c r="CE21" s="9">
         <v>27817</v>
       </c>
-      <c r="CF21" s="8">
+      <c r="CF21" s="9">
         <v>31770</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
@@ -5072,32 +4726,26 @@
       <c r="N22" s="2">
         <v>7004</v>
       </c>
-      <c r="BY22" s="1">
+      <c r="BY22" s="16">
         <v>25362</v>
       </c>
-      <c r="BZ22" s="1">
+      <c r="BZ22" s="16">
         <v>11658</v>
       </c>
-      <c r="CA22" s="1">
+      <c r="CA22" s="16">
         <v>13704</v>
       </c>
-      <c r="CB22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD22" s="8">
+      <c r="CD22" s="9">
         <v>66017</v>
       </c>
-      <c r="CE22" s="8">
+      <c r="CE22" s="9">
         <v>30282</v>
       </c>
-      <c r="CF22" s="8">
+      <c r="CF22" s="9">
         <v>35735</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2006</v>
       </c>
@@ -5123,32 +4771,26 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="BY23" s="1">
+      <c r="BY23" s="16">
         <v>32582</v>
       </c>
-      <c r="BZ23" s="1">
+      <c r="BZ23" s="16">
         <v>15711</v>
       </c>
-      <c r="CA23" s="1">
+      <c r="CA23" s="16">
         <v>16871</v>
       </c>
-      <c r="CB23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD23" s="8">
+      <c r="CD23" s="9">
         <v>70498</v>
       </c>
-      <c r="CE23" s="8">
+      <c r="CE23" s="9">
         <v>32716</v>
       </c>
-      <c r="CF23" s="8">
+      <c r="CF23" s="9">
         <v>37782</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -5170,32 +4812,26 @@
       <c r="N24" s="2">
         <v>7348</v>
       </c>
-      <c r="BY24" s="1">
+      <c r="BY24" s="16">
         <v>39163</v>
       </c>
-      <c r="BZ24" s="1">
+      <c r="BZ24" s="16">
         <v>18767</v>
       </c>
-      <c r="CA24" s="1">
+      <c r="CA24" s="16">
         <v>20396</v>
       </c>
-      <c r="CB24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD24" s="8">
+      <c r="CD24" s="9">
         <v>82370</v>
       </c>
-      <c r="CE24" s="8">
+      <c r="CE24" s="9">
         <v>38604</v>
       </c>
-      <c r="CF24" s="8">
+      <c r="CF24" s="9">
         <v>43766</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2008</v>
       </c>
@@ -5217,32 +4853,26 @@
       <c r="N25" s="2">
         <v>8039</v>
       </c>
-      <c r="BY25" s="1">
+      <c r="BY25" s="16">
         <v>45066</v>
       </c>
-      <c r="BZ25" s="1">
+      <c r="BZ25" s="16">
         <v>21979</v>
       </c>
-      <c r="CA25" s="1">
+      <c r="CA25" s="16">
         <v>23087</v>
       </c>
-      <c r="CB25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD25" s="8">
+      <c r="CD25" s="9">
         <v>89972</v>
       </c>
-      <c r="CE25" s="8">
+      <c r="CE25" s="9">
         <v>41620</v>
       </c>
-      <c r="CF25" s="8">
+      <c r="CF25" s="9">
         <v>48352</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -5266,32 +4896,26 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="BY26" s="1">
+      <c r="BY26" s="16">
         <v>49675</v>
       </c>
-      <c r="BZ26" s="1">
+      <c r="BZ26" s="16">
         <v>24293</v>
       </c>
-      <c r="CA26" s="1">
+      <c r="CA26" s="16">
         <v>25382</v>
       </c>
-      <c r="CB26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD26" s="10">
+      <c r="CD26" s="11">
         <v>97635</v>
       </c>
-      <c r="CE26" s="10">
+      <c r="CE26" s="11">
         <v>45702</v>
       </c>
-      <c r="CF26" s="10">
+      <c r="CF26" s="11">
         <v>51933</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2010</v>
       </c>
@@ -5315,32 +4939,26 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="BY27" s="1">
+      <c r="BY27" s="16">
         <v>52115</v>
       </c>
-      <c r="BZ27" s="1">
+      <c r="BZ27" s="16">
         <v>25473</v>
       </c>
-      <c r="CA27" s="1">
+      <c r="CA27" s="16">
         <v>26642</v>
       </c>
-      <c r="CB27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD27" s="10">
+      <c r="CD27" s="11">
         <v>104972</v>
       </c>
-      <c r="CE27" s="10">
+      <c r="CE27" s="11">
         <v>49315</v>
       </c>
-      <c r="CF27" s="10">
+      <c r="CF27" s="11">
         <v>55657</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2011</v>
       </c>
@@ -5366,32 +4984,26 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="BY28" s="1">
+      <c r="BY28" s="16">
         <v>55963</v>
       </c>
-      <c r="BZ28" s="1">
+      <c r="BZ28" s="16">
         <v>27579</v>
       </c>
-      <c r="CA28" s="1">
+      <c r="CA28" s="16">
         <v>28384</v>
       </c>
-      <c r="CB28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD28" s="10">
+      <c r="CD28" s="11">
         <v>109775</v>
       </c>
-      <c r="CE28" s="10">
+      <c r="CE28" s="11">
         <v>52067</v>
       </c>
-      <c r="CF28" s="10">
+      <c r="CF28" s="11">
         <v>57708</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2012</v>
       </c>
@@ -5417,32 +5029,26 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="BY29" s="1">
+      <c r="BY29" s="16">
         <v>57966</v>
       </c>
-      <c r="BZ29" s="1">
+      <c r="BZ29" s="16">
         <v>29185</v>
       </c>
-      <c r="CA29" s="1">
+      <c r="CA29" s="16">
         <v>28781</v>
       </c>
-      <c r="CB29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD29" s="10">
+      <c r="CD29" s="11">
         <v>114745</v>
       </c>
-      <c r="CE29" s="10">
+      <c r="CE29" s="11">
         <v>54871</v>
       </c>
-      <c r="CF29" s="10">
+      <c r="CF29" s="11">
         <v>59874</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -5468,32 +5074,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="BY30" s="2">
+      <c r="BY30" s="17">
         <v>55159</v>
       </c>
-      <c r="BZ30" s="2">
+      <c r="BZ30" s="17">
         <v>27742</v>
       </c>
-      <c r="CA30" s="2">
+      <c r="CA30" s="17">
         <v>27417</v>
       </c>
-      <c r="CB30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD30" s="10">
+      <c r="CD30" s="11">
         <v>120138</v>
       </c>
-      <c r="CE30" s="10">
+      <c r="CE30" s="11">
         <v>57530</v>
       </c>
-      <c r="CF30" s="10">
+      <c r="CF30" s="11">
         <v>62608</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -5519,30 +5119,27 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="BJ31" s="1">
+      <c r="BJ31" s="16">
         <v>123734</v>
       </c>
-      <c r="BK31" s="1">
+      <c r="BK31" s="16">
         <v>68139</v>
       </c>
-      <c r="BL31" s="1">
+      <c r="BL31" s="16">
         <v>55595</v>
       </c>
-      <c r="BM31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO31" s="1">
+      <c r="BM31" s="16"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="16">
         <v>15095</v>
       </c>
-      <c r="BP31" s="1">
+      <c r="BP31" s="16">
         <v>9185</v>
       </c>
-      <c r="BQ31" s="1">
+      <c r="BQ31" s="16">
         <v>5910</v>
       </c>
+      <c r="BR31" s="16"/>
       <c r="BT31" s="2">
         <v>903</v>
       </c>
@@ -5552,38 +5149,26 @@
       <c r="BV31" s="2">
         <v>308</v>
       </c>
-      <c r="BW31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY31" s="1">
+      <c r="BY31" s="16">
         <v>13738</v>
       </c>
-      <c r="BZ31" s="1">
+      <c r="BZ31" s="16">
         <v>7701</v>
       </c>
-      <c r="CA31" s="1">
+      <c r="CA31" s="16">
         <v>6037</v>
       </c>
-      <c r="CB31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD31" s="8">
+      <c r="CD31" s="9">
         <v>75938</v>
       </c>
-      <c r="CE31" s="8">
+      <c r="CE31" s="9">
         <v>37830</v>
       </c>
-      <c r="CF31" s="8">
+      <c r="CF31" s="9">
         <v>38108</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -5620,77 +5205,56 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="BJ32" s="1">
+      <c r="BJ32" s="16">
         <v>132041</v>
       </c>
-      <c r="BK32" s="1">
+      <c r="BK32" s="16">
         <v>73737</v>
       </c>
-      <c r="BL32" s="1">
+      <c r="BL32" s="16">
         <v>58304</v>
       </c>
-      <c r="BM32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO32" s="1">
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16">
         <v>16072</v>
       </c>
-      <c r="BP32" s="1">
+      <c r="BP32" s="16">
         <v>9626</v>
       </c>
-      <c r="BQ32" s="1">
+      <c r="BQ32" s="16">
         <v>6446</v>
       </c>
-      <c r="BR32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT32" s="1">
+      <c r="BR32" s="16"/>
+      <c r="BT32" s="16">
         <v>1545</v>
       </c>
-      <c r="BU32" s="1">
+      <c r="BU32" s="16">
         <v>966</v>
       </c>
-      <c r="BV32" s="1">
+      <c r="BV32" s="16">
         <v>579</v>
       </c>
-      <c r="BW32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY32" s="1">
+      <c r="BY32" s="16">
         <v>1179</v>
       </c>
-      <c r="BZ32" s="1">
+      <c r="BZ32" s="16">
         <v>606</v>
       </c>
-      <c r="CA32" s="1">
+      <c r="CA32" s="16">
         <v>573</v>
       </c>
-      <c r="CB32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD32" s="8">
+      <c r="CD32" s="9">
         <v>7858</v>
       </c>
-      <c r="CE32" s="8">
+      <c r="CE32" s="9">
         <v>3740</v>
       </c>
-      <c r="CF32" s="8">
+      <c r="CF32" s="9">
         <v>4118</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -5717,68 +5281,38 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="BJ33" s="1">
+      <c r="BJ33" s="16">
         <v>124141</v>
       </c>
-      <c r="BK33" s="1">
+      <c r="BK33" s="16">
         <v>69279</v>
       </c>
-      <c r="BL33" s="1">
+      <c r="BL33" s="16">
         <v>54862</v>
       </c>
-      <c r="BM33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO33" s="1">
+      <c r="BM33" s="16"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="16">
         <v>16894</v>
       </c>
-      <c r="BP33" s="1">
+      <c r="BP33" s="16">
         <v>10270</v>
       </c>
-      <c r="BQ33" s="1">
+      <c r="BQ33" s="16">
         <v>6624</v>
       </c>
-      <c r="BR33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT33" s="1">
+      <c r="BR33" s="16"/>
+      <c r="BT33" s="16">
         <v>1923</v>
       </c>
-      <c r="BU33" s="1">
+      <c r="BU33" s="16">
         <v>1216</v>
       </c>
-      <c r="BV33" s="1">
+      <c r="BV33" s="16">
         <v>707</v>
       </c>
-      <c r="BW33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -5804,68 +5338,38 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="BJ34" s="1">
+      <c r="BJ34" s="16">
         <v>117828</v>
       </c>
-      <c r="BK34" s="1">
+      <c r="BK34" s="16">
         <v>65663</v>
       </c>
-      <c r="BL34" s="1">
+      <c r="BL34" s="16">
         <v>52165</v>
       </c>
-      <c r="BM34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO34" s="1">
+      <c r="BM34" s="16"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="16">
         <v>15799</v>
       </c>
-      <c r="BP34" s="1">
+      <c r="BP34" s="16">
         <v>9425</v>
       </c>
-      <c r="BQ34" s="1">
+      <c r="BQ34" s="16">
         <v>6374</v>
       </c>
-      <c r="BR34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT34" s="1">
+      <c r="BR34" s="16"/>
+      <c r="BT34" s="16">
         <v>1594</v>
       </c>
-      <c r="BU34" s="1">
+      <c r="BU34" s="16">
         <v>991</v>
       </c>
-      <c r="BV34" s="1">
+      <c r="BV34" s="16">
         <v>603</v>
       </c>
-      <c r="BW34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -5889,68 +5393,38 @@
       <c r="N35" s="2">
         <v>11280</v>
       </c>
-      <c r="BJ35" s="1">
+      <c r="BJ35" s="16">
         <v>101067</v>
       </c>
-      <c r="BK35" s="1">
+      <c r="BK35" s="16">
         <v>56587</v>
       </c>
-      <c r="BL35" s="1">
+      <c r="BL35" s="16">
         <v>44480</v>
       </c>
-      <c r="BM35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO35" s="1">
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16">
         <v>16473</v>
       </c>
-      <c r="BP35" s="1">
+      <c r="BP35" s="16">
         <v>9985</v>
       </c>
-      <c r="BQ35" s="1">
+      <c r="BQ35" s="16">
         <v>6488</v>
       </c>
-      <c r="BR35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT35" s="1">
+      <c r="BR35" s="16"/>
+      <c r="BT35" s="16">
         <v>1740</v>
       </c>
-      <c r="BU35" s="1">
+      <c r="BU35" s="16">
         <v>1109</v>
       </c>
-      <c r="BV35" s="1">
+      <c r="BV35" s="16">
         <v>631</v>
       </c>
-      <c r="BW35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -5984,89 +5458,125 @@
       <c r="P36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BJ36" s="1">
+      <c r="BJ36" s="16">
         <v>97221</v>
       </c>
-      <c r="BK36" s="1">
+      <c r="BK36" s="16">
         <v>54899</v>
       </c>
-      <c r="BL36" s="1">
+      <c r="BL36" s="16">
         <v>42318</v>
       </c>
-      <c r="BM36" s="1">
+      <c r="BM36" s="16">
         <v>4</v>
       </c>
-      <c r="BN36" s="1" t="s">
+      <c r="BN36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BO36" s="1">
+      <c r="BO36" s="16">
         <v>17157</v>
       </c>
-      <c r="BP36" s="1">
+      <c r="BP36" s="16">
         <v>10482</v>
       </c>
-      <c r="BQ36" s="1">
+      <c r="BQ36" s="16">
         <v>6674</v>
       </c>
-      <c r="BR36" s="1">
+      <c r="BR36" s="16">
         <v>1</v>
       </c>
-      <c r="BS36" s="1" t="s">
+      <c r="BT36" s="8">
+        <v>1629</v>
+      </c>
+      <c r="BU36" s="14">
+        <v>1079</v>
+      </c>
+      <c r="BV36" s="8">
+        <v>550</v>
+      </c>
+      <c r="BW36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BT36" s="1">
-        <v>1629</v>
-      </c>
-      <c r="BU36" s="1">
-        <v>1079</v>
-      </c>
-      <c r="BV36" s="1">
-        <v>550</v>
-      </c>
-      <c r="BW36" s="1" t="s">
+      <c r="BX36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BX36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
+      <c r="B37" s="15">
+        <v>146643</v>
+      </c>
+      <c r="C37" s="15">
+        <v>71839</v>
+      </c>
+      <c r="D37" s="15">
+        <v>94364</v>
+      </c>
+      <c r="L37" s="15">
+        <v>20010</v>
+      </c>
+      <c r="M37" s="15">
+        <v>9465</v>
+      </c>
+      <c r="N37" s="15">
+        <v>12470</v>
+      </c>
+      <c r="BE37" s="12">
+        <v>243572</v>
+      </c>
+      <c r="BF37" s="12">
+        <v>128660</v>
+      </c>
+      <c r="BG37" s="12">
+        <v>138884</v>
+      </c>
+      <c r="BJ37" s="12">
+        <v>94228</v>
+      </c>
+      <c r="BK37" s="12">
+        <v>52691</v>
+      </c>
+      <c r="BL37" s="12">
+        <v>41530</v>
+      </c>
+      <c r="BO37" s="12">
+        <v>19947</v>
+      </c>
+      <c r="BP37" s="12">
+        <v>11786</v>
+      </c>
+      <c r="BQ37" s="12">
+        <v>8153</v>
+      </c>
+      <c r="BT37" s="12">
+        <v>1518</v>
+      </c>
+      <c r="BU37" s="12">
+        <v>1001</v>
+      </c>
+      <c r="BV37" s="12">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B584D46-225E-154A-B515-B7F444869813}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -6074,34 +5584,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
